--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9445E22-949E-9B4F-B93B-762D2AC21923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="9260" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,14 @@
     <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="16" r:id="rId13"/>
     <sheet name="Action Tagging" sheetId="17" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId15"/>
+    <sheet name="Transfer To Queue" sheetId="19" r:id="rId15"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId16"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="1069">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2630,18 +2633,6 @@
   </si>
   <si>
     <t>040920000009</t>
-  </si>
-  <si>
-    <t>040920000010</t>
-  </si>
-  <si>
-    <t>040920000011</t>
-  </si>
-  <si>
-    <t>040920000012</t>
-  </si>
-  <si>
-    <t>040920000013</t>
   </si>
   <si>
     <t>Prank Caller</t>
@@ -3074,23 +3065,203 @@
     <t>RGVhdGhub3RlQDEyMw</t>
   </si>
   <si>
-    <t>334705780</t>
-  </si>
-  <si>
-    <t>334705777</t>
-  </si>
-  <si>
-    <t>334705778</t>
-  </si>
-  <si>
-    <t>334705779</t>
+    <t>999964103</t>
+  </si>
+  <si>
+    <t>892430207057035524</t>
+  </si>
+  <si>
+    <t>Ticket Field 1 - Label</t>
+  </si>
+  <si>
+    <t>Ticket 1 Type</t>
+  </si>
+  <si>
+    <t>Ticket Field 2 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 3 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 4 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 5 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 7 - Label</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Transfer Anyway</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3316,7 +3487,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3367,13 +3538,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -3459,7 +3639,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,7 +3682,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +3725,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3588,7 +3768,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3811,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3926,20 +4106,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3986,18 +4166,18 @@
         <v>14</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>2390932</v>
       </c>
       <c r="B2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
@@ -4009,15 +4189,18 @@
         <v>119</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -4026,15 +4209,18 @@
         <v>334705780</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2388008</v>
       </c>
       <c r="B4" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C4" t="s">
         <v>117</v>
@@ -4043,15 +4229,18 @@
         <v>332700113</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>2390932</v>
       </c>
       <c r="B5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
@@ -4060,7 +4249,10 @@
         <v>334705780</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>1009</v>
+        <v>1005</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -4070,21 +4262,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
@@ -4095,7 +4287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
@@ -4104,7 +4296,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="9" t="s">
         <v>58</v>
       </c>
@@ -4113,7 +4305,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -4122,7 +4314,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -4131,7 +4323,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -4148,20 +4340,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>120</v>
       </c>
@@ -4169,7 +4361,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4177,7 +4369,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -4185,7 +4377,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -4193,17 +4385,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
@@ -4214,38 +4406,38 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>873</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -4254,99 +4446,98 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="30" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="30" customWidth="1"/>
     <col min="11" max="11" width="12" style="30" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="30" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="30" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.33203125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="30" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="30" t="s">
         <v>879</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="30" t="s">
         <v>880</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>882</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>883</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>885</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>886</v>
       </c>
-      <c r="J1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="153">
+      <c r="A2" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="B2" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>889</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>889</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>893</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>894</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>896</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>897</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -4355,68 +4546,74 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" style="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -4425,10 +4622,173 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="s">
-        <v>1004</v>
+        <v>1000</v>
+      </c>
+      <c r="J3" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="42" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="42" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="42" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="42" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="42" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="42" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="42" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="42" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4438,58 +4798,297 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2478F1A-58C6-B04F-9743-94022F5F90DE}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D710DB47-8162-784A-9104-218C45560340}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="43" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="43" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51">
+      <c r="A3" s="43" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="43" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="43" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34">
+      <c r="A6" s="43" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="43" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="43" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34">
+      <c r="A10" s="43" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="43" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="43" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14" s="43" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="43" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32"/>
-    <col min="3" max="3" width="15.85546875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="32"/>
+    <col min="2" max="2" width="9.1640625" style="32"/>
+    <col min="3" max="3" width="15.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>908</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>909</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>910</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>912</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>913</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>914</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>915</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>916</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>917</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>918</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="10" t="s">
         <v>137</v>
       </c>
@@ -4510,7 +5109,7 @@
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="10" t="s">
         <v>132</v>
       </c>
@@ -4531,7 +5130,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="10" t="s">
         <v>136</v>
       </c>
@@ -4559,49 +5158,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="11" t="s">
         <v>79</v>
       </c>
@@ -4612,29 +5211,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -4663,24 +5262,24 @@
         <v>24</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>84</v>
@@ -4702,7 +5301,7 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="12" t="s">
         <v>88</v>
       </c>
@@ -4719,7 +5318,7 @@
         <v>91</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4729,12 +5328,12 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>90</v>
@@ -4743,7 +5342,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>87</v>
@@ -4756,7 +5355,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="12" t="s">
         <v>94</v>
       </c>
@@ -4782,14 +5381,14 @@
         <v>99</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
         <v>100</v>
       </c>
@@ -4814,7 +5413,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="12" t="s">
         <v>102</v>
       </c>
@@ -4839,7 +5438,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="12" t="s">
         <v>104</v>
       </c>
@@ -4866,7 +5465,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="12" t="s">
         <v>107</v>
       </c>
@@ -4893,24 +5492,24 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="36" t="s">
+        <v>925</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>929</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>969</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>931</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>932</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>933</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -4920,24 +5519,24 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="36" t="s">
+        <v>930</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>934</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>935</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>938</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>939</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -4947,30 +5546,30 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>942</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>943</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>945</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>947</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4978,21 +5577,21 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="12" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -5003,12 +5602,12 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="36" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>90</v>
@@ -5017,22 +5616,22 @@
         <v>93</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>112</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="K14" s="36" t="s">
         <v>99</v>
@@ -5040,9 +5639,9 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="36" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>26</v>
@@ -5054,13 +5653,13 @@
         <v>91</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>93</v>
@@ -5071,21 +5670,21 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="36" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -5096,21 +5695,21 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="36" t="s">
+        <v>966</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>968</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>970</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>971</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>972</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>973</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>974</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -5121,24 +5720,24 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="36" t="s">
+        <v>978</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>980</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>981</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>983</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>984</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>985</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>986</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -5148,68 +5747,68 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="36" t="s">
+        <v>983</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>995</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>984</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>985</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>986</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>987</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>999</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>988</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>989</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>990</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>991</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>87</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="36" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -5225,16 +5824,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="20" customFormat="1" ht="16">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -5305,10 +5904,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="Y1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -5320,25 +5919,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="34" t="s">
+        <v>918</v>
+      </c>
+      <c r="AD1" s="34" t="s">
+        <v>919</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>920</v>
+      </c>
+      <c r="AF1" s="34" t="s">
+        <v>921</v>
+      </c>
+      <c r="AG1" s="34" t="s">
         <v>922</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>923</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AI1" s="35" t="s">
         <v>924</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>925</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>926</v>
-      </c>
-      <c r="AH1" s="34" t="s">
-        <v>927</v>
-      </c>
-      <c r="AI1" s="35" t="s">
-        <v>928</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -5350,7 +5949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="21" t="s">
         <v>189</v>
       </c>
@@ -5422,435 +6021,210 @@
         <v>862</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="AA3" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB3" s="24">
-        <v>24</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI6" si="0">SUM(AB3,AD3,AF3,AH3)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ3" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK3" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="AA4" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB4" s="22">
-        <v>24</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="AA5" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB5" s="24">
-        <v>24</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK5" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="AA6" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB6" s="22">
-        <v>24</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ6" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK6" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>866</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:BG111"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG110" sqref="AG110"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:59" s="20" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
         <v>920</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BA1" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="Z1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="34" t="s">
+      <c r="BB1" s="12" t="s">
         <v>922</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="BC1" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="BD1" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="AF1" s="34" t="s">
-        <v>925</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>926</v>
-      </c>
-      <c r="AH1" s="34" t="s">
-        <v>927</v>
-      </c>
-      <c r="AI1" s="35" t="s">
-        <v>928</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="BE1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BF1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BG1" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59">
       <c r="A2" s="21" t="s">
         <v>146</v>
       </c>
@@ -5877,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59">
       <c r="A3" s="23" t="s">
         <v>146</v>
       </c>
@@ -5904,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59">
       <c r="A4" s="21" t="s">
         <v>146</v>
       </c>
@@ -5931,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59">
       <c r="A5" s="23" t="s">
         <v>146</v>
       </c>
@@ -5958,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59">
       <c r="A6" s="21" t="s">
         <v>146</v>
       </c>
@@ -5985,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59">
       <c r="A7" s="23" t="s">
         <v>146</v>
       </c>
@@ -6012,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59">
       <c r="A8" s="21" t="s">
         <v>146</v>
       </c>
@@ -6039,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59">
       <c r="A9" s="23" t="s">
         <v>146</v>
       </c>
@@ -6066,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59">
       <c r="A10" s="21" t="s">
         <v>146</v>
       </c>
@@ -6093,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59">
       <c r="A11" s="23" t="s">
         <v>146</v>
       </c>
@@ -6120,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59">
       <c r="A12" s="21" t="s">
         <v>146</v>
       </c>
@@ -6147,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59">
       <c r="A13" s="23" t="s">
         <v>146</v>
       </c>
@@ -6174,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59">
       <c r="A14" s="21" t="s">
         <v>146</v>
       </c>
@@ -6201,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59">
       <c r="A15" s="23" t="s">
         <v>146</v>
       </c>
@@ -6228,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59">
       <c r="A16" s="21" t="s">
         <v>189</v>
       </c>
@@ -6297,7 +6671,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="23" t="s">
         <v>189</v>
       </c>
@@ -6366,7 +6740,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="21" t="s">
         <v>196</v>
       </c>
@@ -6435,7 +6809,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="23" t="s">
         <v>189</v>
       </c>
@@ -6504,7 +6878,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="21" t="s">
         <v>189</v>
       </c>
@@ -6573,7 +6947,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="23" t="s">
         <v>196</v>
       </c>
@@ -6642,7 +7016,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="21" t="s">
         <v>189</v>
       </c>
@@ -6711,7 +7085,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="23" t="s">
         <v>189</v>
       </c>
@@ -6780,7 +7154,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="21" t="s">
         <v>196</v>
       </c>
@@ -6849,7 +7223,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="23" t="s">
         <v>189</v>
       </c>
@@ -6918,7 +7292,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="21" t="s">
         <v>189</v>
       </c>
@@ -6987,7 +7361,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="23" t="s">
         <v>196</v>
       </c>
@@ -7056,7 +7430,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="21" t="s">
         <v>189</v>
       </c>
@@ -7137,7 +7511,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="23" t="s">
         <v>189</v>
       </c>
@@ -7206,7 +7580,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="21" t="s">
         <v>189</v>
       </c>
@@ -7275,7 +7649,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="23" t="s">
         <v>189</v>
       </c>
@@ -7350,7 +7724,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="21" t="s">
         <v>189</v>
       </c>
@@ -7419,7 +7793,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33" s="23" t="s">
         <v>196</v>
       </c>
@@ -7488,7 +7862,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="A34" s="21" t="s">
         <v>196</v>
       </c>
@@ -7557,7 +7931,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="A35" s="23" t="s">
         <v>189</v>
       </c>
@@ -7626,7 +8000,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="A36" s="21" t="s">
         <v>196</v>
       </c>
@@ -7695,7 +8069,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="A37" s="23" t="s">
         <v>189</v>
       </c>
@@ -7770,7 +8144,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="21" t="s">
         <v>189</v>
       </c>
@@ -7830,7 +8204,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="A39" s="23" t="s">
         <v>189</v>
       </c>
@@ -7899,7 +8273,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="A40" s="21" t="s">
         <v>189</v>
       </c>
@@ -7950,7 +8324,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37">
       <c r="A41" s="23" t="s">
         <v>189</v>
       </c>
@@ -8019,7 +8393,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37">
       <c r="A42" s="21" t="s">
         <v>189</v>
       </c>
@@ -8088,7 +8462,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37">
       <c r="A43" s="23" t="s">
         <v>196</v>
       </c>
@@ -8157,7 +8531,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37">
       <c r="A44" s="21" t="s">
         <v>196</v>
       </c>
@@ -8226,7 +8600,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37">
       <c r="A45" s="23" t="s">
         <v>189</v>
       </c>
@@ -8295,7 +8669,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37">
       <c r="A46" s="21" t="s">
         <v>189</v>
       </c>
@@ -8364,7 +8738,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37">
       <c r="A47" s="23" t="s">
         <v>189</v>
       </c>
@@ -8433,7 +8807,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37">
       <c r="A48" s="21" t="s">
         <v>189</v>
       </c>
@@ -8502,7 +8876,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37">
       <c r="A49" s="23" t="s">
         <v>189</v>
       </c>
@@ -8571,7 +8945,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37">
       <c r="A50" s="21" t="s">
         <v>189</v>
       </c>
@@ -8640,7 +9014,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51" s="23" t="s">
         <v>189</v>
       </c>
@@ -8709,7 +9083,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37">
       <c r="A52" s="21" t="s">
         <v>189</v>
       </c>
@@ -8778,7 +9152,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37">
       <c r="A53" s="23" t="s">
         <v>189</v>
       </c>
@@ -8847,7 +9221,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37">
       <c r="A54" s="21" t="s">
         <v>196</v>
       </c>
@@ -8916,7 +9290,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37">
       <c r="A55" s="23" t="s">
         <v>196</v>
       </c>
@@ -8985,7 +9359,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37">
       <c r="A56" s="21" t="s">
         <v>196</v>
       </c>
@@ -9060,7 +9434,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37">
       <c r="A57" s="23" t="s">
         <v>196</v>
       </c>
@@ -9129,7 +9503,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37">
       <c r="A58" s="21" t="s">
         <v>196</v>
       </c>
@@ -9198,7 +9572,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37">
       <c r="A59" s="23" t="s">
         <v>196</v>
       </c>
@@ -9267,7 +9641,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37">
       <c r="A60" s="21" t="s">
         <v>196</v>
       </c>
@@ -9336,7 +9710,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37">
       <c r="A61" s="23" t="s">
         <v>196</v>
       </c>
@@ -9405,7 +9779,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37">
       <c r="A62" s="21" t="s">
         <v>196</v>
       </c>
@@ -9474,7 +9848,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37">
       <c r="A63" s="23" t="s">
         <v>196</v>
       </c>
@@ -9543,7 +9917,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37">
       <c r="A64" s="21" t="s">
         <v>196</v>
       </c>
@@ -9612,7 +9986,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37">
       <c r="A65" s="23" t="s">
         <v>196</v>
       </c>
@@ -9681,7 +10055,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37">
       <c r="A66" s="21" t="s">
         <v>196</v>
       </c>
@@ -9750,7 +10124,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37">
       <c r="A67" s="23" t="s">
         <v>196</v>
       </c>
@@ -9819,7 +10193,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37">
       <c r="A68" s="21" t="s">
         <v>196</v>
       </c>
@@ -9888,7 +10262,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37">
       <c r="A69" s="23" t="s">
         <v>196</v>
       </c>
@@ -9957,7 +10331,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37">
       <c r="A70" s="21" t="s">
         <v>196</v>
       </c>
@@ -10026,7 +10400,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37">
       <c r="A71" s="23" t="s">
         <v>196</v>
       </c>
@@ -10095,7 +10469,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37">
       <c r="A72" s="21" t="s">
         <v>196</v>
       </c>
@@ -10164,7 +10538,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37">
       <c r="A73" s="23" t="s">
         <v>196</v>
       </c>
@@ -10233,7 +10607,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37">
       <c r="A74" s="21" t="s">
         <v>196</v>
       </c>
@@ -10302,7 +10676,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37">
       <c r="A75" s="23" t="s">
         <v>196</v>
       </c>
@@ -10371,7 +10745,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37">
       <c r="A76" s="21" t="s">
         <v>196</v>
       </c>
@@ -10440,7 +10814,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37">
       <c r="A77" s="23" t="s">
         <v>196</v>
       </c>
@@ -10509,7 +10883,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37">
       <c r="A78" s="21" t="s">
         <v>196</v>
       </c>
@@ -10578,7 +10952,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37">
       <c r="A79" s="23" t="s">
         <v>196</v>
       </c>
@@ -10647,7 +11021,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37">
       <c r="A80" s="21" t="s">
         <v>189</v>
       </c>
@@ -10716,7 +11090,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37">
       <c r="A81" s="23" t="s">
         <v>196</v>
       </c>
@@ -10785,7 +11159,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37">
       <c r="A82" s="21" t="s">
         <v>196</v>
       </c>
@@ -10854,7 +11228,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37">
       <c r="A83" s="23" t="s">
         <v>196</v>
       </c>
@@ -10923,7 +11297,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37">
       <c r="A84" s="21" t="s">
         <v>196</v>
       </c>
@@ -10992,7 +11366,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37">
       <c r="A85" s="23" t="s">
         <v>189</v>
       </c>
@@ -11061,7 +11435,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37">
       <c r="A86" s="21" t="s">
         <v>196</v>
       </c>
@@ -11130,7 +11504,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37">
       <c r="A87" s="23" t="s">
         <v>189</v>
       </c>
@@ -11199,7 +11573,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37">
       <c r="A88" s="21" t="s">
         <v>189</v>
       </c>
@@ -11268,7 +11642,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37">
       <c r="A89" s="23" t="s">
         <v>189</v>
       </c>
@@ -11337,7 +11711,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37">
       <c r="A90" s="21" t="s">
         <v>196</v>
       </c>
@@ -11406,7 +11780,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37">
       <c r="A91" s="23" t="s">
         <v>196</v>
       </c>
@@ -11475,7 +11849,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37">
       <c r="A92" s="21" t="s">
         <v>196</v>
       </c>
@@ -11544,7 +11918,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37">
       <c r="A93" s="23" t="s">
         <v>196</v>
       </c>
@@ -11613,7 +11987,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37">
       <c r="A94" s="21" t="s">
         <v>189</v>
       </c>
@@ -11682,7 +12056,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37">
       <c r="A95" s="23" t="s">
         <v>196</v>
       </c>
@@ -11751,7 +12125,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37">
       <c r="A96" s="21" t="s">
         <v>196</v>
       </c>
@@ -11820,7 +12194,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37">
       <c r="A97" s="23" t="s">
         <v>189</v>
       </c>
@@ -11889,7 +12263,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37">
       <c r="A98" s="21" t="s">
         <v>196</v>
       </c>
@@ -11958,7 +12332,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37">
       <c r="A99" s="23" t="s">
         <v>189</v>
       </c>
@@ -12027,7 +12401,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37">
       <c r="A100" s="21" t="s">
         <v>196</v>
       </c>
@@ -12096,7 +12470,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37">
       <c r="A101" s="23" t="s">
         <v>196</v>
       </c>
@@ -12165,7 +12539,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37">
       <c r="A102" s="21" t="s">
         <v>196</v>
       </c>
@@ -12234,7 +12608,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37">
       <c r="A103" s="23" t="s">
         <v>196</v>
       </c>
@@ -12303,7 +12677,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37">
       <c r="A104" s="21" t="s">
         <v>196</v>
       </c>
@@ -12372,7 +12746,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37">
       <c r="A105" s="23" t="s">
         <v>196</v>
       </c>
@@ -12441,7 +12815,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37">
       <c r="A106" s="21" t="s">
         <v>196</v>
       </c>
@@ -12510,7 +12884,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37">
       <c r="A107" s="23" t="s">
         <v>196</v>
       </c>
@@ -12579,7 +12953,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37">
       <c r="A108" s="21" t="s">
         <v>196</v>
       </c>
@@ -12648,7 +13022,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37">
       <c r="A109" s="23" t="s">
         <v>196</v>
       </c>
@@ -12717,7 +13091,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37">
       <c r="A110" s="21" t="s">
         <v>196</v>
       </c>
@@ -12786,7 +13160,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37">
       <c r="A111" s="23" t="s">
         <v>196</v>
       </c>
@@ -12861,24 +13235,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -12898,7 +13272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>81</v>
       </c>
@@ -12918,7 +13292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>81</v>
       </c>
@@ -12936,7 +13310,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="21" t="s">
         <v>81</v>
       </c>
@@ -12954,7 +13328,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>499</v>
       </c>
@@ -12974,7 +13348,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="21" t="s">
         <v>503</v>
       </c>
@@ -12994,7 +13368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="23" t="s">
         <v>503</v>
       </c>
@@ -13014,7 +13388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="21" t="s">
         <v>499</v>
       </c>
@@ -13032,7 +13406,7 @@
       </c>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="23" t="s">
         <v>513</v>
       </c>
@@ -13050,7 +13424,7 @@
       </c>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="21" t="s">
         <v>80</v>
       </c>
@@ -13068,7 +13442,7 @@
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="23" t="s">
         <v>513</v>
       </c>
@@ -13088,7 +13462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
         <v>513</v>
       </c>
@@ -13106,7 +13480,7 @@
       </c>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="23" t="s">
         <v>513</v>
       </c>
@@ -13124,7 +13498,7 @@
       </c>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
         <v>81</v>
       </c>
@@ -13144,7 +13518,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="23" t="s">
         <v>81</v>
       </c>
@@ -13164,7 +13538,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
         <v>81</v>
       </c>
@@ -13182,7 +13556,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="23" t="s">
         <v>81</v>
       </c>
@@ -13200,7 +13574,7 @@
       </c>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
         <v>81</v>
       </c>
@@ -13220,7 +13594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="23" t="s">
         <v>81</v>
       </c>
@@ -13238,7 +13612,7 @@
       </c>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
         <v>81</v>
       </c>
@@ -13256,7 +13630,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="23" t="s">
         <v>503</v>
       </c>
@@ -13274,7 +13648,7 @@
       </c>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="21" t="s">
         <v>513</v>
       </c>
@@ -13292,7 +13666,7 @@
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="23" t="s">
         <v>513</v>
       </c>
@@ -13310,7 +13684,7 @@
       </c>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="21" t="s">
         <v>513</v>
       </c>
@@ -13328,7 +13702,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="23" t="s">
         <v>503</v>
       </c>
@@ -13348,7 +13722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="21" t="s">
         <v>503</v>
       </c>
@@ -13368,7 +13742,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="23" t="s">
         <v>81</v>
       </c>
@@ -13386,7 +13760,7 @@
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="21" t="s">
         <v>503</v>
       </c>
@@ -13404,7 +13778,7 @@
       </c>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="23" t="s">
         <v>503</v>
       </c>
@@ -13422,7 +13796,7 @@
       </c>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="21" t="s">
         <v>81</v>
       </c>
@@ -13440,7 +13814,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="23" t="s">
         <v>499</v>
       </c>
@@ -13458,7 +13832,7 @@
       </c>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="21" t="s">
         <v>499</v>
       </c>
@@ -13476,7 +13850,7 @@
       </c>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="23" t="s">
         <v>503</v>
       </c>
@@ -13494,7 +13868,7 @@
       </c>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="21" t="s">
         <v>499</v>
       </c>
@@ -13512,7 +13886,7 @@
       </c>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="23" t="s">
         <v>503</v>
       </c>
@@ -13530,7 +13904,7 @@
       </c>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="21" t="s">
         <v>513</v>
       </c>
@@ -13550,7 +13924,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="23" t="s">
         <v>80</v>
       </c>
@@ -13568,7 +13942,7 @@
       </c>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="21" t="s">
         <v>80</v>
       </c>
@@ -13586,7 +13960,7 @@
       </c>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="23" t="s">
         <v>513</v>
       </c>
@@ -13604,7 +13978,7 @@
       </c>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="21" t="s">
         <v>513</v>
       </c>
@@ -13622,7 +13996,7 @@
       </c>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="23" t="s">
         <v>513</v>
       </c>
@@ -13640,7 +14014,7 @@
       </c>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="21" t="s">
         <v>81</v>
       </c>
@@ -13658,7 +14032,7 @@
       </c>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="23" t="s">
         <v>81</v>
       </c>
@@ -13676,7 +14050,7 @@
       </c>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="21" t="s">
         <v>81</v>
       </c>
@@ -13694,7 +14068,7 @@
       </c>
       <c r="F44" s="22"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="23" t="s">
         <v>81</v>
       </c>
@@ -13712,7 +14086,7 @@
       </c>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="21" t="s">
         <v>81</v>
       </c>
@@ -13730,7 +14104,7 @@
       </c>
       <c r="F46" s="22"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="23" t="s">
         <v>81</v>
       </c>
@@ -13748,7 +14122,7 @@
       </c>
       <c r="F47" s="24"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="21" t="s">
         <v>81</v>
       </c>
@@ -13766,7 +14140,7 @@
       </c>
       <c r="F48" s="22"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="23" t="s">
         <v>81</v>
       </c>
@@ -13784,7 +14158,7 @@
       </c>
       <c r="F49" s="24"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="21" t="s">
         <v>81</v>
       </c>
@@ -13802,7 +14176,7 @@
       </c>
       <c r="F50" s="22"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="23" t="s">
         <v>81</v>
       </c>
@@ -13820,7 +14194,7 @@
       </c>
       <c r="F51" s="24"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="21" t="s">
         <v>81</v>
       </c>
@@ -13838,7 +14212,7 @@
       </c>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="23" t="s">
         <v>81</v>
       </c>
@@ -13856,7 +14230,7 @@
       </c>
       <c r="F53" s="24"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="21" t="s">
         <v>81</v>
       </c>
@@ -13874,7 +14248,7 @@
       </c>
       <c r="F54" s="22"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="23" t="s">
         <v>81</v>
       </c>
@@ -13892,7 +14266,7 @@
       </c>
       <c r="F55" s="24"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="21" t="s">
         <v>81</v>
       </c>
@@ -13910,7 +14284,7 @@
       </c>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="23" t="s">
         <v>499</v>
       </c>
@@ -13930,7 +14304,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="21" t="s">
         <v>499</v>
       </c>
@@ -13950,7 +14324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="23" t="s">
         <v>499</v>
       </c>
@@ -13968,7 +14342,7 @@
       </c>
       <c r="F59" s="24"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="21" t="s">
         <v>503</v>
       </c>
@@ -13986,7 +14360,7 @@
       </c>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="23" t="s">
         <v>499</v>
       </c>
@@ -14004,7 +14378,7 @@
       </c>
       <c r="F61" s="24"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="21" t="s">
         <v>503</v>
       </c>
@@ -14022,7 +14396,7 @@
       </c>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="23" t="s">
         <v>513</v>
       </c>
@@ -14040,7 +14414,7 @@
       </c>
       <c r="F63" s="24"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="21" t="s">
         <v>513</v>
       </c>
@@ -14058,7 +14432,7 @@
       </c>
       <c r="F64" s="22"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="23" t="s">
         <v>513</v>
       </c>
@@ -14076,7 +14450,7 @@
       </c>
       <c r="F65" s="24"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="21" t="s">
         <v>513</v>
       </c>
@@ -14094,7 +14468,7 @@
       </c>
       <c r="F66" s="22"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="23" t="s">
         <v>513</v>
       </c>
@@ -14112,7 +14486,7 @@
       </c>
       <c r="F67" s="24"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="21" t="s">
         <v>513</v>
       </c>
@@ -14130,7 +14504,7 @@
       </c>
       <c r="F68" s="22"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="23" t="s">
         <v>513</v>
       </c>
@@ -14148,7 +14522,7 @@
       </c>
       <c r="F69" s="24"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="21" t="s">
         <v>513</v>
       </c>
@@ -14166,7 +14540,7 @@
       </c>
       <c r="F70" s="22"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="23" t="s">
         <v>513</v>
       </c>
@@ -14184,7 +14558,7 @@
       </c>
       <c r="F71" s="24"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="21" t="s">
         <v>513</v>
       </c>
@@ -14202,7 +14576,7 @@
       </c>
       <c r="F72" s="22"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="23" t="s">
         <v>513</v>
       </c>
@@ -14220,7 +14594,7 @@
       </c>
       <c r="F73" s="24"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="21" t="s">
         <v>513</v>
       </c>
@@ -14238,7 +14612,7 @@
       </c>
       <c r="F74" s="22"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="23" t="s">
         <v>499</v>
       </c>
@@ -14256,7 +14630,7 @@
       </c>
       <c r="F75" s="24"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="21" t="s">
         <v>503</v>
       </c>
@@ -14274,7 +14648,7 @@
       </c>
       <c r="F76" s="22"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="23" t="s">
         <v>503</v>
       </c>
@@ -14294,7 +14668,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="21" t="s">
         <v>81</v>
       </c>
@@ -14312,7 +14686,7 @@
       </c>
       <c r="F78" s="22"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="23" t="s">
         <v>81</v>
       </c>
@@ -14330,7 +14704,7 @@
       </c>
       <c r="F79" s="24"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="21" t="s">
         <v>81</v>
       </c>
@@ -14348,7 +14722,7 @@
       </c>
       <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="23" t="s">
         <v>513</v>
       </c>
@@ -14366,7 +14740,7 @@
       </c>
       <c r="F81" s="24"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="21" t="s">
         <v>81</v>
       </c>
@@ -14384,7 +14758,7 @@
       </c>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="23" t="s">
         <v>81</v>
       </c>
@@ -14402,7 +14776,7 @@
       </c>
       <c r="F83" s="24"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="21" t="s">
         <v>81</v>
       </c>
@@ -14420,7 +14794,7 @@
       </c>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="23" t="s">
         <v>81</v>
       </c>
@@ -14438,7 +14812,7 @@
       </c>
       <c r="F85" s="24"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="21" t="s">
         <v>81</v>
       </c>
@@ -14456,7 +14830,7 @@
       </c>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="23" t="s">
         <v>81</v>
       </c>
@@ -14474,7 +14848,7 @@
       </c>
       <c r="F87" s="24"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="21" t="s">
         <v>81</v>
       </c>
@@ -14492,7 +14866,7 @@
       </c>
       <c r="F88" s="22"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="23" t="s">
         <v>81</v>
       </c>
@@ -14510,7 +14884,7 @@
       </c>
       <c r="F89" s="24"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="21" t="s">
         <v>81</v>
       </c>
@@ -14528,7 +14902,7 @@
       </c>
       <c r="F90" s="22"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="23" t="s">
         <v>81</v>
       </c>
@@ -14546,7 +14920,7 @@
       </c>
       <c r="F91" s="24"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="21" t="s">
         <v>81</v>
       </c>
@@ -14564,7 +14938,7 @@
       </c>
       <c r="F92" s="22"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="23" t="s">
         <v>81</v>
       </c>
@@ -14582,7 +14956,7 @@
       </c>
       <c r="F93" s="24"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="21" t="s">
         <v>81</v>
       </c>
@@ -14600,7 +14974,7 @@
       </c>
       <c r="F94" s="22"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="23" t="s">
         <v>81</v>
       </c>
@@ -14618,7 +14992,7 @@
       </c>
       <c r="F95" s="24"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="21" t="s">
         <v>81</v>
       </c>
@@ -14636,7 +15010,7 @@
       </c>
       <c r="F96" s="22"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="23" t="s">
         <v>81</v>
       </c>
@@ -14654,7 +15028,7 @@
       </c>
       <c r="F97" s="24"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="21" t="s">
         <v>503</v>
       </c>
@@ -14672,7 +15046,7 @@
       </c>
       <c r="F98" s="22"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="23" t="s">
         <v>503</v>
       </c>
@@ -14690,7 +15064,7 @@
       </c>
       <c r="F99" s="24"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="21" t="s">
         <v>503</v>
       </c>
@@ -14708,7 +15082,7 @@
       </c>
       <c r="F100" s="22"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="23" t="s">
         <v>503</v>
       </c>
@@ -14726,7 +15100,7 @@
       </c>
       <c r="F101" s="24"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="21" t="s">
         <v>503</v>
       </c>
@@ -14744,7 +15118,7 @@
       </c>
       <c r="F102" s="22"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="23" t="s">
         <v>503</v>
       </c>
@@ -14762,7 +15136,7 @@
       </c>
       <c r="F103" s="24"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="21" t="s">
         <v>513</v>
       </c>
@@ -14780,7 +15154,7 @@
       </c>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="23" t="s">
         <v>513</v>
       </c>
@@ -14798,7 +15172,7 @@
       </c>
       <c r="F105" s="24"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="21" t="s">
         <v>513</v>
       </c>
@@ -14816,7 +15190,7 @@
       </c>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="23" t="s">
         <v>513</v>
       </c>
@@ -14834,7 +15208,7 @@
       </c>
       <c r="F107" s="24"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="21" t="s">
         <v>513</v>
       </c>
@@ -14852,7 +15226,7 @@
       </c>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="23" t="s">
         <v>81</v>
       </c>
@@ -14870,7 +15244,7 @@
       </c>
       <c r="F109" s="24"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="21" t="s">
         <v>81</v>
       </c>
@@ -14888,7 +15262,7 @@
       </c>
       <c r="F110" s="22"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="23" t="s">
         <v>81</v>
       </c>
@@ -14906,7 +15280,7 @@
       </c>
       <c r="F111" s="24"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="21" t="s">
         <v>503</v>
       </c>
@@ -14924,7 +15298,7 @@
       </c>
       <c r="F112" s="22"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="23" t="s">
         <v>499</v>
       </c>
@@ -14942,7 +15316,7 @@
       </c>
       <c r="F113" s="24"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="21" t="s">
         <v>499</v>
       </c>
@@ -14960,7 +15334,7 @@
       </c>
       <c r="F114" s="22"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="23" t="s">
         <v>503</v>
       </c>
@@ -14978,7 +15352,7 @@
       </c>
       <c r="F115" s="24"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="21" t="s">
         <v>503</v>
       </c>
@@ -14996,7 +15370,7 @@
       </c>
       <c r="F116" s="22"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="23" t="s">
         <v>499</v>
       </c>
@@ -15014,7 +15388,7 @@
       </c>
       <c r="F117" s="24"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="21" t="s">
         <v>503</v>
       </c>
@@ -15032,7 +15406,7 @@
       </c>
       <c r="F118" s="22"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="23" t="s">
         <v>503</v>
       </c>
@@ -15050,7 +15424,7 @@
       </c>
       <c r="F119" s="24"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="21" t="s">
         <v>503</v>
       </c>
@@ -15068,7 +15442,7 @@
       </c>
       <c r="F120" s="22"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="23" t="s">
         <v>503</v>
       </c>
@@ -15086,7 +15460,7 @@
       </c>
       <c r="F121" s="24"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="21" t="s">
         <v>503</v>
       </c>
@@ -15104,7 +15478,7 @@
       </c>
       <c r="F122" s="22"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="23" t="s">
         <v>513</v>
       </c>
@@ -15122,7 +15496,7 @@
       </c>
       <c r="F123" s="24"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="21" t="s">
         <v>503</v>
       </c>
@@ -15140,7 +15514,7 @@
       </c>
       <c r="F124" s="22"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="23" t="s">
         <v>499</v>
       </c>
@@ -15158,7 +15532,7 @@
       </c>
       <c r="F125" s="24"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="21" t="s">
         <v>499</v>
       </c>
@@ -15177,23 +15551,23 @@
       <c r="F126" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F126"/>
+  <autoFilter ref="A1:F126" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
@@ -15213,7 +15587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>81</v>
       </c>
@@ -15231,266 +15605,6 @@
       </c>
       <c r="F2" s="22" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>565</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>657</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>658</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>658</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>714</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>716</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -15499,20 +15613,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" activeCellId="1" sqref="E9 C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
@@ -15523,7 +15637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
@@ -15534,7 +15648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="16" t="s">
         <v>64</v>
       </c>
@@ -15545,7 +15659,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="16" t="s">
         <v>65</v>
       </c>
@@ -15556,7 +15670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="16" t="s">
         <v>66</v>
       </c>
@@ -15567,7 +15681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="B6" s="17" t="s">
         <v>134</v>
       </c>
@@ -15575,7 +15689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16">
       <c r="B7" s="17" t="s">
         <v>135</v>
       </c>
@@ -15583,7 +15697,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16">
       <c r="B8" s="17" t="s">
         <v>136</v>
       </c>
@@ -15591,12 +15705,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="C9" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="C10" s="19" t="s">
         <v>136</v>
       </c>
@@ -15607,22 +15721,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
@@ -15636,35 +15750,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="29" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D2" s="12">
         <v>334705780</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="29" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D3" s="12">
         <v>334705780</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="29" t="s">
         <v>140</v>
       </c>
@@ -15672,13 +15786,13 @@
         <v>68</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D4" s="12">
         <v>334705780</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="29" t="s">
         <v>130</v>
       </c>
@@ -15686,7 +15800,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D5" s="12">
         <v>334705780</v>

--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9445E22-949E-9B4F-B93B-762D2AC21923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="9260" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="9255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1081">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3255,13 +3254,49 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3301,6 +3336,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3550,10 +3586,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 4 2" xfId="4"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -3639,7 +3675,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3682,7 +3718,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,7 +3761,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3768,7 +3804,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3811,7 +3847,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,20 +4142,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4172,7 +4208,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2390932</v>
       </c>
@@ -4195,7 +4231,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2394650</v>
       </c>
@@ -4215,7 +4251,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2388008</v>
       </c>
@@ -4235,7 +4271,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2390932</v>
       </c>
@@ -4262,21 +4298,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
@@ -4287,7 +4323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
@@ -4296,7 +4332,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>58</v>
       </c>
@@ -4305,7 +4341,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -4314,7 +4350,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -4323,7 +4359,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -4340,20 +4376,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>120</v>
       </c>
@@ -4361,7 +4397,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4369,7 +4405,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -4377,7 +4413,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -4385,17 +4421,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
@@ -4406,24 +4442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>869</v>
       </c>
@@ -4446,31 +4482,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="30" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="30" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="30" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="30" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="30" customWidth="1"/>
     <col min="11" max="11" width="12" style="30" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="30" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="30" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="13.28515625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>874</v>
       </c>
@@ -4511,7 +4547,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="153">
+    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>887</v>
       </c>
@@ -4546,26 +4582,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>895</v>
       </c>
@@ -4597,7 +4633,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>902</v>
       </c>
@@ -4611,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>999</v>
       </c>
@@ -4631,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>1016</v>
       </c>
@@ -4647,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>1017</v>
       </c>
@@ -4663,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>1018</v>
       </c>
@@ -4679,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>1019</v>
       </c>
@@ -4695,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>1020</v>
       </c>
@@ -4711,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>1021</v>
       </c>
@@ -4727,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>1022</v>
       </c>
@@ -4743,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>1023</v>
       </c>
@@ -4759,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>1024</v>
       </c>
@@ -4775,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>1025</v>
       </c>
@@ -4798,16 +4834,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2478F1A-58C6-B04F-9743-94022F5F90DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>872</v>
       </c>
@@ -4818,7 +4854,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>137</v>
       </c>
@@ -4829,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>138</v>
       </c>
@@ -4840,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>131</v>
       </c>
@@ -4857,22 +4893,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D710DB47-8162-784A-9104-218C45560340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="24.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>1027</v>
       </c>
@@ -4883,7 +4919,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>1030</v>
       </c>
@@ -4894,7 +4930,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51">
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>1033</v>
       </c>
@@ -4905,7 +4941,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>1036</v>
       </c>
@@ -4916,7 +4952,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>1039</v>
       </c>
@@ -4927,7 +4963,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>1042</v>
       </c>
@@ -4936,7 +4972,7 @@
       </c>
       <c r="C6" s="44"/>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>1044</v>
       </c>
@@ -4947,7 +4983,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>1047</v>
       </c>
@@ -4958,7 +4994,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>1050</v>
       </c>
@@ -4969,7 +5005,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34">
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>1053</v>
       </c>
@@ -4980,7 +5016,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>1056</v>
       </c>
@@ -4991,7 +5027,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>1059</v>
       </c>
@@ -5002,7 +5038,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>1062</v>
       </c>
@@ -5011,7 +5047,7 @@
       </c>
       <c r="C13" s="44"/>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>1064</v>
       </c>
@@ -5020,7 +5056,7 @@
       </c>
       <c r="C14" s="44"/>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>1066</v>
       </c>
@@ -5037,23 +5073,23 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="32"/>
-    <col min="3" max="3" width="15.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="32"/>
+    <col min="2" max="2" width="9.140625" style="32"/>
+    <col min="3" max="3" width="15.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>905</v>
       </c>
@@ -5088,7 +5124,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>137</v>
       </c>
@@ -5109,7 +5145,7 @@
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>132</v>
       </c>
@@ -5130,7 +5166,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>136</v>
       </c>
@@ -5158,49 +5194,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>79</v>
       </c>
@@ -5211,29 +5247,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -5274,7 +5310,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5301,7 +5337,7 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>88</v>
       </c>
@@ -5328,7 +5364,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>92</v>
       </c>
@@ -5355,7 +5391,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>94</v>
       </c>
@@ -5388,7 +5424,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>100</v>
       </c>
@@ -5413,7 +5449,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>102</v>
       </c>
@@ -5438,7 +5474,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>104</v>
       </c>
@@ -5465,7 +5501,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>107</v>
       </c>
@@ -5492,7 +5528,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>925</v>
       </c>
@@ -5519,7 +5555,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>930</v>
       </c>
@@ -5546,7 +5582,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>936</v>
       </c>
@@ -5577,7 +5613,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>944</v>
       </c>
@@ -5602,7 +5638,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>948</v>
       </c>
@@ -5639,7 +5675,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>953</v>
       </c>
@@ -5670,7 +5706,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>957</v>
       </c>
@@ -5695,7 +5731,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>966</v>
       </c>
@@ -5720,7 +5756,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>978</v>
       </c>
@@ -5747,7 +5783,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="32">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>983</v>
       </c>
@@ -5788,7 +5824,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>989</v>
       </c>
@@ -5816,6 +5852,70 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5824,16 +5924,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" s="20" customFormat="1" ht="16">
+    <row r="1" spans="1:38" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -5949,7 +6049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>189</v>
       </c>
@@ -6027,25 +6127,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="20" customFormat="1">
+    <row r="1" spans="1:59" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
@@ -6224,7 +6324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>146</v>
       </c>
@@ -6251,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>146</v>
       </c>
@@ -6278,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>146</v>
       </c>
@@ -6305,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>146</v>
       </c>
@@ -6332,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>146</v>
       </c>
@@ -6359,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>146</v>
       </c>
@@ -6386,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>146</v>
       </c>
@@ -6413,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>146</v>
       </c>
@@ -6440,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>146</v>
       </c>
@@ -6467,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>146</v>
       </c>
@@ -6494,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>146</v>
       </c>
@@ -6521,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>146</v>
       </c>
@@ -6548,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>146</v>
       </c>
@@ -6575,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>146</v>
       </c>
@@ -6602,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>189</v>
       </c>
@@ -6671,7 +6771,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>189</v>
       </c>
@@ -6740,7 +6840,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>196</v>
       </c>
@@ -6809,7 +6909,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>189</v>
       </c>
@@ -6878,7 +6978,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>189</v>
       </c>
@@ -6947,7 +7047,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>196</v>
       </c>
@@ -7016,7 +7116,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>189</v>
       </c>
@@ -7085,7 +7185,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>189</v>
       </c>
@@ -7154,7 +7254,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>196</v>
       </c>
@@ -7223,7 +7323,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>189</v>
       </c>
@@ -7292,7 +7392,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>189</v>
       </c>
@@ -7361,7 +7461,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>196</v>
       </c>
@@ -7430,7 +7530,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>189</v>
       </c>
@@ -7511,7 +7611,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>189</v>
       </c>
@@ -7580,7 +7680,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>189</v>
       </c>
@@ -7649,7 +7749,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>189</v>
       </c>
@@ -7724,7 +7824,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>189</v>
       </c>
@@ -7793,7 +7893,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>196</v>
       </c>
@@ -7862,7 +7962,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>196</v>
       </c>
@@ -7931,7 +8031,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>189</v>
       </c>
@@ -8000,7 +8100,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>196</v>
       </c>
@@ -8069,7 +8169,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>189</v>
       </c>
@@ -8144,7 +8244,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>189</v>
       </c>
@@ -8204,7 +8304,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>189</v>
       </c>
@@ -8273,7 +8373,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>189</v>
       </c>
@@ -8324,7 +8424,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>189</v>
       </c>
@@ -8393,7 +8493,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>189</v>
       </c>
@@ -8462,7 +8562,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>196</v>
       </c>
@@ -8531,7 +8631,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>196</v>
       </c>
@@ -8600,7 +8700,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>189</v>
       </c>
@@ -8669,7 +8769,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>189</v>
       </c>
@@ -8738,7 +8838,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>189</v>
       </c>
@@ -8807,7 +8907,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>189</v>
       </c>
@@ -8876,7 +8976,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>189</v>
       </c>
@@ -8945,7 +9045,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>189</v>
       </c>
@@ -9014,7 +9114,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>189</v>
       </c>
@@ -9083,7 +9183,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>189</v>
       </c>
@@ -9152,7 +9252,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>189</v>
       </c>
@@ -9221,7 +9321,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>196</v>
       </c>
@@ -9290,7 +9390,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>196</v>
       </c>
@@ -9359,7 +9459,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>196</v>
       </c>
@@ -9434,7 +9534,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>196</v>
       </c>
@@ -9503,7 +9603,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>196</v>
       </c>
@@ -9572,7 +9672,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>196</v>
       </c>
@@ -9641,7 +9741,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>196</v>
       </c>
@@ -9710,7 +9810,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>196</v>
       </c>
@@ -9779,7 +9879,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>196</v>
       </c>
@@ -9848,7 +9948,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>196</v>
       </c>
@@ -9917,7 +10017,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>196</v>
       </c>
@@ -9986,7 +10086,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>196</v>
       </c>
@@ -10055,7 +10155,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>196</v>
       </c>
@@ -10124,7 +10224,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>196</v>
       </c>
@@ -10193,7 +10293,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>196</v>
       </c>
@@ -10262,7 +10362,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>196</v>
       </c>
@@ -10331,7 +10431,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>196</v>
       </c>
@@ -10400,7 +10500,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>196</v>
       </c>
@@ -10469,7 +10569,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>196</v>
       </c>
@@ -10538,7 +10638,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>196</v>
       </c>
@@ -10607,7 +10707,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>196</v>
       </c>
@@ -10676,7 +10776,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>196</v>
       </c>
@@ -10745,7 +10845,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>196</v>
       </c>
@@ -10814,7 +10914,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>196</v>
       </c>
@@ -10883,7 +10983,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>196</v>
       </c>
@@ -10952,7 +11052,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>196</v>
       </c>
@@ -11021,7 +11121,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>189</v>
       </c>
@@ -11090,7 +11190,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>196</v>
       </c>
@@ -11159,7 +11259,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>196</v>
       </c>
@@ -11228,7 +11328,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>196</v>
       </c>
@@ -11297,7 +11397,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>196</v>
       </c>
@@ -11366,7 +11466,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>189</v>
       </c>
@@ -11435,7 +11535,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>196</v>
       </c>
@@ -11504,7 +11604,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>189</v>
       </c>
@@ -11573,7 +11673,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>189</v>
       </c>
@@ -11642,7 +11742,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>189</v>
       </c>
@@ -11711,7 +11811,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>196</v>
       </c>
@@ -11780,7 +11880,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>196</v>
       </c>
@@ -11849,7 +11949,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>196</v>
       </c>
@@ -11918,7 +12018,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>196</v>
       </c>
@@ -11987,7 +12087,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>189</v>
       </c>
@@ -12056,7 +12156,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>196</v>
       </c>
@@ -12125,7 +12225,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>196</v>
       </c>
@@ -12194,7 +12294,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>189</v>
       </c>
@@ -12263,7 +12363,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="98" spans="1:37">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>196</v>
       </c>
@@ -12332,7 +12432,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="99" spans="1:37">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>189</v>
       </c>
@@ -12401,7 +12501,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="1:37">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>196</v>
       </c>
@@ -12470,7 +12570,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>196</v>
       </c>
@@ -12539,7 +12639,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="102" spans="1:37">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>196</v>
       </c>
@@ -12608,7 +12708,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="103" spans="1:37">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>196</v>
       </c>
@@ -12677,7 +12777,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:37">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>196</v>
       </c>
@@ -12746,7 +12846,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="105" spans="1:37">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>196</v>
       </c>
@@ -12815,7 +12915,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="106" spans="1:37">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>196</v>
       </c>
@@ -12884,7 +12984,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="107" spans="1:37">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>196</v>
       </c>
@@ -12953,7 +13053,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>196</v>
       </c>
@@ -13022,7 +13122,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>196</v>
       </c>
@@ -13091,7 +13191,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>196</v>
       </c>
@@ -13160,7 +13260,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>196</v>
       </c>
@@ -13235,24 +13335,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -13272,7 +13372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>81</v>
       </c>
@@ -13292,7 +13392,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>81</v>
       </c>
@@ -13310,7 +13410,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>81</v>
       </c>
@@ -13328,7 +13428,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>499</v>
       </c>
@@ -13348,7 +13448,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>503</v>
       </c>
@@ -13368,7 +13468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>503</v>
       </c>
@@ -13388,7 +13488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>499</v>
       </c>
@@ -13406,7 +13506,7 @@
       </c>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>513</v>
       </c>
@@ -13424,7 +13524,7 @@
       </c>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>80</v>
       </c>
@@ -13442,7 +13542,7 @@
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>513</v>
       </c>
@@ -13462,7 +13562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>513</v>
       </c>
@@ -13480,7 +13580,7 @@
       </c>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>513</v>
       </c>
@@ -13498,7 +13598,7 @@
       </c>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>81</v>
       </c>
@@ -13518,7 +13618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>81</v>
       </c>
@@ -13538,7 +13638,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>81</v>
       </c>
@@ -13556,7 +13656,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>81</v>
       </c>
@@ -13574,7 +13674,7 @@
       </c>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>81</v>
       </c>
@@ -13594,7 +13694,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>81</v>
       </c>
@@ -13612,7 +13712,7 @@
       </c>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>81</v>
       </c>
@@ -13630,7 +13730,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>503</v>
       </c>
@@ -13648,7 +13748,7 @@
       </c>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>513</v>
       </c>
@@ -13666,7 +13766,7 @@
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>513</v>
       </c>
@@ -13684,7 +13784,7 @@
       </c>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>513</v>
       </c>
@@ -13702,7 +13802,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>503</v>
       </c>
@@ -13722,7 +13822,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>503</v>
       </c>
@@ -13742,7 +13842,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>81</v>
       </c>
@@ -13760,7 +13860,7 @@
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>503</v>
       </c>
@@ -13778,7 +13878,7 @@
       </c>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>503</v>
       </c>
@@ -13796,7 +13896,7 @@
       </c>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>81</v>
       </c>
@@ -13814,7 +13914,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>499</v>
       </c>
@@ -13832,7 +13932,7 @@
       </c>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>499</v>
       </c>
@@ -13850,7 +13950,7 @@
       </c>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>503</v>
       </c>
@@ -13868,7 +13968,7 @@
       </c>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>499</v>
       </c>
@@ -13886,7 +13986,7 @@
       </c>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>503</v>
       </c>
@@ -13904,7 +14004,7 @@
       </c>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>513</v>
       </c>
@@ -13924,7 +14024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>80</v>
       </c>
@@ -13942,7 +14042,7 @@
       </c>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>80</v>
       </c>
@@ -13960,7 +14060,7 @@
       </c>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>513</v>
       </c>
@@ -13978,7 +14078,7 @@
       </c>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>513</v>
       </c>
@@ -13996,7 +14096,7 @@
       </c>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>513</v>
       </c>
@@ -14014,7 +14114,7 @@
       </c>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>81</v>
       </c>
@@ -14032,7 +14132,7 @@
       </c>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>81</v>
       </c>
@@ -14050,7 +14150,7 @@
       </c>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>81</v>
       </c>
@@ -14068,7 +14168,7 @@
       </c>
       <c r="F44" s="22"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>81</v>
       </c>
@@ -14086,7 +14186,7 @@
       </c>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>81</v>
       </c>
@@ -14104,7 +14204,7 @@
       </c>
       <c r="F46" s="22"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>81</v>
       </c>
@@ -14122,7 +14222,7 @@
       </c>
       <c r="F47" s="24"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>81</v>
       </c>
@@ -14140,7 +14240,7 @@
       </c>
       <c r="F48" s="22"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>81</v>
       </c>
@@ -14158,7 +14258,7 @@
       </c>
       <c r="F49" s="24"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>81</v>
       </c>
@@ -14176,7 +14276,7 @@
       </c>
       <c r="F50" s="22"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>81</v>
       </c>
@@ -14194,7 +14294,7 @@
       </c>
       <c r="F51" s="24"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>81</v>
       </c>
@@ -14212,7 +14312,7 @@
       </c>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>81</v>
       </c>
@@ -14230,7 +14330,7 @@
       </c>
       <c r="F53" s="24"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>81</v>
       </c>
@@ -14248,7 +14348,7 @@
       </c>
       <c r="F54" s="22"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>81</v>
       </c>
@@ -14266,7 +14366,7 @@
       </c>
       <c r="F55" s="24"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>81</v>
       </c>
@@ -14284,7 +14384,7 @@
       </c>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>499</v>
       </c>
@@ -14304,7 +14404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>499</v>
       </c>
@@ -14324,7 +14424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>499</v>
       </c>
@@ -14342,7 +14442,7 @@
       </c>
       <c r="F59" s="24"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>503</v>
       </c>
@@ -14360,7 +14460,7 @@
       </c>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>499</v>
       </c>
@@ -14378,7 +14478,7 @@
       </c>
       <c r="F61" s="24"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>503</v>
       </c>
@@ -14396,7 +14496,7 @@
       </c>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>513</v>
       </c>
@@ -14414,7 +14514,7 @@
       </c>
       <c r="F63" s="24"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>513</v>
       </c>
@@ -14432,7 +14532,7 @@
       </c>
       <c r="F64" s="22"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>513</v>
       </c>
@@ -14450,7 +14550,7 @@
       </c>
       <c r="F65" s="24"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>513</v>
       </c>
@@ -14468,7 +14568,7 @@
       </c>
       <c r="F66" s="22"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>513</v>
       </c>
@@ -14486,7 +14586,7 @@
       </c>
       <c r="F67" s="24"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>513</v>
       </c>
@@ -14504,7 +14604,7 @@
       </c>
       <c r="F68" s="22"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>513</v>
       </c>
@@ -14522,7 +14622,7 @@
       </c>
       <c r="F69" s="24"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>513</v>
       </c>
@@ -14540,7 +14640,7 @@
       </c>
       <c r="F70" s="22"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>513</v>
       </c>
@@ -14558,7 +14658,7 @@
       </c>
       <c r="F71" s="24"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>513</v>
       </c>
@@ -14576,7 +14676,7 @@
       </c>
       <c r="F72" s="22"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>513</v>
       </c>
@@ -14594,7 +14694,7 @@
       </c>
       <c r="F73" s="24"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>513</v>
       </c>
@@ -14612,7 +14712,7 @@
       </c>
       <c r="F74" s="22"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>499</v>
       </c>
@@ -14630,7 +14730,7 @@
       </c>
       <c r="F75" s="24"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>503</v>
       </c>
@@ -14648,7 +14748,7 @@
       </c>
       <c r="F76" s="22"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>503</v>
       </c>
@@ -14668,7 +14768,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>81</v>
       </c>
@@ -14686,7 +14786,7 @@
       </c>
       <c r="F78" s="22"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>81</v>
       </c>
@@ -14704,7 +14804,7 @@
       </c>
       <c r="F79" s="24"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>81</v>
       </c>
@@ -14722,7 +14822,7 @@
       </c>
       <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>513</v>
       </c>
@@ -14740,7 +14840,7 @@
       </c>
       <c r="F81" s="24"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>81</v>
       </c>
@@ -14758,7 +14858,7 @@
       </c>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>81</v>
       </c>
@@ -14776,7 +14876,7 @@
       </c>
       <c r="F83" s="24"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>81</v>
       </c>
@@ -14794,7 +14894,7 @@
       </c>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>81</v>
       </c>
@@ -14812,7 +14912,7 @@
       </c>
       <c r="F85" s="24"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>81</v>
       </c>
@@ -14830,7 +14930,7 @@
       </c>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>81</v>
       </c>
@@ -14848,7 +14948,7 @@
       </c>
       <c r="F87" s="24"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>81</v>
       </c>
@@ -14866,7 +14966,7 @@
       </c>
       <c r="F88" s="22"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>81</v>
       </c>
@@ -14884,7 +14984,7 @@
       </c>
       <c r="F89" s="24"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>81</v>
       </c>
@@ -14902,7 +15002,7 @@
       </c>
       <c r="F90" s="22"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>81</v>
       </c>
@@ -14920,7 +15020,7 @@
       </c>
       <c r="F91" s="24"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>81</v>
       </c>
@@ -14938,7 +15038,7 @@
       </c>
       <c r="F92" s="22"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>81</v>
       </c>
@@ -14956,7 +15056,7 @@
       </c>
       <c r="F93" s="24"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>81</v>
       </c>
@@ -14974,7 +15074,7 @@
       </c>
       <c r="F94" s="22"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>81</v>
       </c>
@@ -14992,7 +15092,7 @@
       </c>
       <c r="F95" s="24"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>81</v>
       </c>
@@ -15010,7 +15110,7 @@
       </c>
       <c r="F96" s="22"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>81</v>
       </c>
@@ -15028,7 +15128,7 @@
       </c>
       <c r="F97" s="24"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>503</v>
       </c>
@@ -15046,7 +15146,7 @@
       </c>
       <c r="F98" s="22"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>503</v>
       </c>
@@ -15064,7 +15164,7 @@
       </c>
       <c r="F99" s="24"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>503</v>
       </c>
@@ -15082,7 +15182,7 @@
       </c>
       <c r="F100" s="22"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>503</v>
       </c>
@@ -15100,7 +15200,7 @@
       </c>
       <c r="F101" s="24"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>503</v>
       </c>
@@ -15118,7 +15218,7 @@
       </c>
       <c r="F102" s="22"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>503</v>
       </c>
@@ -15136,7 +15236,7 @@
       </c>
       <c r="F103" s="24"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>513</v>
       </c>
@@ -15154,7 +15254,7 @@
       </c>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>513</v>
       </c>
@@ -15172,7 +15272,7 @@
       </c>
       <c r="F105" s="24"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>513</v>
       </c>
@@ -15190,7 +15290,7 @@
       </c>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>513</v>
       </c>
@@ -15208,7 +15308,7 @@
       </c>
       <c r="F107" s="24"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>513</v>
       </c>
@@ -15226,7 +15326,7 @@
       </c>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>81</v>
       </c>
@@ -15244,7 +15344,7 @@
       </c>
       <c r="F109" s="24"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>81</v>
       </c>
@@ -15262,7 +15362,7 @@
       </c>
       <c r="F110" s="22"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>81</v>
       </c>
@@ -15280,7 +15380,7 @@
       </c>
       <c r="F111" s="24"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>503</v>
       </c>
@@ -15298,7 +15398,7 @@
       </c>
       <c r="F112" s="22"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>499</v>
       </c>
@@ -15316,7 +15416,7 @@
       </c>
       <c r="F113" s="24"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>499</v>
       </c>
@@ -15334,7 +15434,7 @@
       </c>
       <c r="F114" s="22"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>503</v>
       </c>
@@ -15352,7 +15452,7 @@
       </c>
       <c r="F115" s="24"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>503</v>
       </c>
@@ -15370,7 +15470,7 @@
       </c>
       <c r="F116" s="22"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
         <v>499</v>
       </c>
@@ -15388,7 +15488,7 @@
       </c>
       <c r="F117" s="24"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>503</v>
       </c>
@@ -15406,7 +15506,7 @@
       </c>
       <c r="F118" s="22"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
         <v>503</v>
       </c>
@@ -15424,7 +15524,7 @@
       </c>
       <c r="F119" s="24"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>503</v>
       </c>
@@ -15442,7 +15542,7 @@
       </c>
       <c r="F120" s="22"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="23" t="s">
         <v>503</v>
       </c>
@@ -15460,7 +15560,7 @@
       </c>
       <c r="F121" s="24"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>503</v>
       </c>
@@ -15478,7 +15578,7 @@
       </c>
       <c r="F122" s="22"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
         <v>513</v>
       </c>
@@ -15496,7 +15596,7 @@
       </c>
       <c r="F123" s="24"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>503</v>
       </c>
@@ -15514,7 +15614,7 @@
       </c>
       <c r="F124" s="22"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
         <v>499</v>
       </c>
@@ -15532,7 +15632,7 @@
       </c>
       <c r="F125" s="24"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>499</v>
       </c>
@@ -15551,23 +15651,23 @@
       <c r="F126" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F126" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:F126"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
@@ -15587,7 +15687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>81</v>
       </c>
@@ -15613,20 +15713,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" activeCellId="1" sqref="E9 C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
@@ -15637,7 +15737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
@@ -15648,7 +15748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>64</v>
       </c>
@@ -15659,7 +15759,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>65</v>
       </c>
@@ -15670,7 +15770,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>66</v>
       </c>
@@ -15681,7 +15781,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>134</v>
       </c>
@@ -15689,7 +15789,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>135</v>
       </c>
@@ -15697,7 +15797,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>136</v>
       </c>
@@ -15705,12 +15805,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="19" t="s">
         <v>136</v>
       </c>
@@ -15721,22 +15821,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
@@ -15750,7 +15850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>863</v>
       </c>
@@ -15764,7 +15864,7 @@
         <v>334705780</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>864</v>
       </c>
@@ -15778,7 +15878,7 @@
         <v>334705780</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>140</v>
       </c>
@@ -15792,7 +15892,7 @@
         <v>334705780</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>130</v>
       </c>

--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="9255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="9255" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1081">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2752,12 +2752,6 @@
   </si>
   <si>
     <t>SIM Bar Unbar</t>
-  </si>
-  <si>
-    <t>SIM Lost</t>
-  </si>
-  <si>
-    <t>SIM Broken</t>
   </si>
   <si>
     <t>Queue Name</t>
@@ -3290,6 +3284,12 @@
   </si>
   <si>
     <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>Customer Request</t>
+  </si>
+  <si>
+    <t>Customer wants to use Pay as you go</t>
   </si>
 </sst>
 </file>
@@ -3553,7 +3553,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -3564,8 +3563,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3581,6 +3578,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3675,7 +3681,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +3724,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3761,7 +3767,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3804,7 +3810,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3847,7 +3853,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4202,10 +4208,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4213,7 +4219,7 @@
         <v>2390932</v>
       </c>
       <c r="B2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
@@ -4224,11 +4230,11 @@
       <c r="O2" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>1006</v>
+      <c r="P2" s="36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4236,7 +4242,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -4244,11 +4250,11 @@
       <c r="D3" s="12">
         <v>334705780</v>
       </c>
-      <c r="P3" s="39" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>1006</v>
+      <c r="P3" s="36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4256,7 +4262,7 @@
         <v>2388008</v>
       </c>
       <c r="B4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
         <v>117</v>
@@ -4264,11 +4270,11 @@
       <c r="D4" s="12">
         <v>332700113</v>
       </c>
-      <c r="P4" s="39" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>1006</v>
+      <c r="P4" s="36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4276,7 +4282,7 @@
         <v>2390932</v>
       </c>
       <c r="B5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
@@ -4284,11 +4290,11 @@
       <c r="D5" s="12">
         <v>334705780</v>
       </c>
-      <c r="P5" s="39" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>1006</v>
+      <c r="P5" s="36" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -4494,15 +4500,15 @@
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="30" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="12" style="30" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="30" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="29" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="12" style="29" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="29" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4516,34 +4522,34 @@
       <c r="C1" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>877</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>878</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>879</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>880</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>881</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>882</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>883</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>884</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>885</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>886</v>
       </c>
     </row>
@@ -4557,22 +4563,22 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>889</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>890</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>891</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>892</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>893</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>894</v>
       </c>
     </row>
@@ -4585,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4624,13 +4630,13 @@
         <v>901</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>1015</v>
+        <v>1000</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4638,18 +4644,18 @@
         <v>902</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>903</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="J2" s="42" t="b">
+        <v>1080</v>
+      </c>
+      <c r="J2" s="39" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -4658,172 +4664,172 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="42" t="b">
+        <v>998</v>
+      </c>
+      <c r="J3" s="39" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>1016</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42" t="b">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>1017</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42" t="b">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>1018</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42" t="b">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>1019</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42" t="b">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>1020</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42" t="b">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>1021</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42" t="b">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>1022</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42" t="b">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>1023</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42" t="b">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4851,7 +4857,7 @@
         <v>873</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4909,162 +4915,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>1027</v>
       </c>
-      <c r="B1" s="43" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>1028</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>1030</v>
       </c>
-      <c r="B2" s="43" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>1031</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>1033</v>
       </c>
-      <c r="B3" s="43" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>1034</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>1036</v>
       </c>
-      <c r="B4" s="43" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>1037</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>1039</v>
       </c>
-      <c r="B5" s="43" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>1040</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>1042</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B7" s="40" t="s">
         <v>1043</v>
       </c>
-      <c r="C6" s="44"/>
-    </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="C7" s="40" t="s">
         <v>1044</v>
       </c>
-      <c r="B7" s="43" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>1045</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="C8" s="40" t="s">
         <v>1047</v>
       </c>
-      <c r="B8" s="43" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>1048</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="C9" s="40" t="s">
         <v>1050</v>
       </c>
-      <c r="B9" s="43" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>1051</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="C10" s="40" t="s">
         <v>1053</v>
       </c>
-      <c r="B10" s="43" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>1054</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="C11" s="40" t="s">
         <v>1056</v>
       </c>
-      <c r="B11" s="43" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>1057</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="B12" s="40" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="C12" s="40" t="s">
         <v>1059</v>
       </c>
-      <c r="B12" s="43" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>1060</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="B13" s="40" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B14" s="40" t="s">
         <v>1063</v>
       </c>
-      <c r="C13" s="44"/>
-    </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>1064</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>1065</v>
       </c>
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="C15" s="40" t="s">
         <v>1066</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -5082,110 +5088,110 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32"/>
-    <col min="3" max="3" width="15.85546875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="22" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="31"/>
+    <col min="3" max="3" width="15.85546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>905</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>906</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>907</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>908</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>909</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>910</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>911</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>912</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>913</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>914</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5250,7 +5256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5297,25 +5303,25 @@
       <c r="I1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>961</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>962</v>
+      <c r="J1" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>960</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>976</v>
+      <c r="B2" s="34" t="s">
+        <v>974</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>84</v>
@@ -5354,7 +5360,7 @@
         <v>91</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -5369,7 +5375,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>90</v>
@@ -5377,8 +5383,8 @@
       <c r="D4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>977</v>
+      <c r="E4" s="34" t="s">
+        <v>975</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>87</v>
@@ -5417,7 +5423,7 @@
         <v>99</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -5529,23 +5535,23 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>926</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>965</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>927</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>929</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -5556,23 +5562,23 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
+        <v>928</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>931</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>933</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>934</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>935</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -5583,29 +5589,29 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="33" t="s">
+        <v>934</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>937</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>939</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>941</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>942</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>943</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -5615,19 +5621,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>945</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>947</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -5639,45 +5645,45 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>948</v>
+      <c r="A14" s="33" t="s">
+        <v>946</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="34" t="s">
+        <v>947</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>949</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="36" t="s">
+      <c r="I14" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="33" t="s">
         <v>950</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>951</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="33" t="s">
         <v>99</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>953</v>
+      <c r="A15" s="33" t="s">
+        <v>951</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>26</v>
@@ -5685,17 +5691,17 @@
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="33" t="s">
+        <v>952</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>954</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>956</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>93</v>
@@ -5707,17 +5713,17 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>958</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>959</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>960</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>895</v>
@@ -5732,20 +5738,20 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="33" t="s">
+        <v>964</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>965</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>966</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="D17" s="33" t="s">
         <v>967</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="E17" s="33" t="s">
         <v>968</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>969</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>970</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -5757,20 +5763,20 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>977</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>978</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="D18" s="33" t="s">
         <v>979</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="E18" s="33" t="s">
         <v>980</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>981</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>982</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>895</v>
@@ -5784,67 +5790,67 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>993</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>982</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>983</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="F19" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>985</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="J19" s="35" t="s">
         <v>995</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>984</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>985</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="K19" s="35" t="s">
+        <v>996</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="33" t="s">
         <v>986</v>
       </c>
-      <c r="G19" s="36" t="s">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>987</v>
       </c>
-      <c r="H19" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>996</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>997</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>998</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="36" t="s">
+      <c r="B20" s="12" t="s">
         <v>988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>989</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>990</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="33" t="s">
+        <v>989</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>990</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>991</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="G20" s="33" t="s">
         <v>992</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>993</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>994</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -5855,34 +5861,34 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>1069</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>1070</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>1072</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>112</v>
       </c>
       <c r="G21" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>1074</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>1076</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -5890,22 +5896,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>1077</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>1079</v>
-      </c>
       <c r="D22" s="12" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>112</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>895</v>
@@ -5925,131 +5931,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:59" s="20" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AC1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="43" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AE1" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="43" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AH1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AN1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="20" t="s">
         <v>916</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AY1" s="20" t="s">
         <v>917</v>
       </c>
-      <c r="Z1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AZ1" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="BA1" s="20" t="s">
         <v>919</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="BB1" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="BC1" s="20" t="s">
         <v>921</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="BD1" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="AH1" s="34" t="s">
-        <v>923</v>
-      </c>
-      <c r="AI1" s="35" t="s">
-        <v>924</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="BE1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BF1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BG1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>189</v>
       </c>
@@ -6092,15 +6161,15 @@
       <c r="N2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
       <c r="AA2" s="22" t="s">
         <v>132</v>
       </c>
@@ -6114,10 +6183,29 @@
       <c r="AJ2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="AK2" s="27" t="s">
+      <c r="AK2" s="26" t="s">
         <v>491</v>
       </c>
       <c r="AL2" t="s">
+        <v>862</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW2" s="22">
+        <v>24</v>
+      </c>
+      <c r="BD2">
+        <f>SUM(AW2,AY2,BA2,BC2)</f>
+        <v>24</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF2" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="BG2" t="s">
         <v>862</v>
       </c>
     </row>
@@ -6216,25 +6304,25 @@
         <v>32</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Z1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AC1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>34</v>
@@ -6243,7 +6331,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AH1" s="12" t="s">
         <v>36</v>
@@ -6252,7 +6340,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AK1" s="12" t="s">
         <v>38</v>
@@ -6261,7 +6349,7 @@
         <v>32</v>
       </c>
       <c r="AM1" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AN1" s="12" t="s">
         <v>40</v>
@@ -6270,7 +6358,7 @@
         <v>32</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AQ1" s="12" t="s">
         <v>114</v>
@@ -6279,10 +6367,10 @@
         <v>32</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AT1" s="12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AU1" s="12" t="s">
         <v>32</v>
@@ -6294,25 +6382,25 @@
         <v>42</v>
       </c>
       <c r="AX1" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
         <v>918</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>919</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>920</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>922</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>924</v>
       </c>
       <c r="BE1" s="12" t="s">
         <v>43</v>
@@ -6340,12 +6428,12 @@
       <c r="E2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
       <c r="AI2">
         <f>SUM(AB2,AD2,AF2,AH2)</f>
         <v>0</v>
@@ -6367,12 +6455,12 @@
       <c r="E3" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
       <c r="AI3">
         <f t="shared" ref="AI3:AI66" si="0">SUM(AB3,AD3,AF3,AH3)</f>
         <v>0</v>
@@ -6394,12 +6482,12 @@
       <c r="E4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
       <c r="AI4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6421,12 +6509,12 @@
       <c r="E5" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
       <c r="AI5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6448,12 +6536,12 @@
       <c r="E6" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
       <c r="AI6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6475,12 +6563,12 @@
       <c r="E7" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
       <c r="AI7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6502,12 +6590,12 @@
       <c r="E8" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
       <c r="AI8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6529,12 +6617,12 @@
       <c r="E9" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
       <c r="AI9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6556,12 +6644,12 @@
       <c r="E10" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
       <c r="AI10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6583,12 +6671,12 @@
       <c r="E11" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
       <c r="AI11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6610,12 +6698,12 @@
       <c r="E12" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
       <c r="AI12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6637,12 +6725,12 @@
       <c r="E13" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
       <c r="AI13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6664,12 +6752,12 @@
       <c r="E14" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
       <c r="AI14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6691,12 +6779,12 @@
       <c r="E15" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
       <c r="AI15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6745,15 +6833,15 @@
       <c r="N16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
       <c r="AA16" s="22" t="s">
         <v>132</v>
       </c>
@@ -6767,7 +6855,7 @@
       <c r="AJ16" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="AK16" s="27" t="s">
+      <c r="AK16" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6814,15 +6902,15 @@
       <c r="N17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
       <c r="AA17" s="24" t="s">
         <v>133</v>
       </c>
@@ -6836,7 +6924,7 @@
       <c r="AJ17" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK17" s="28" t="s">
+      <c r="AK17" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6883,15 +6971,15 @@
       <c r="N18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
       <c r="AA18" s="22" t="s">
         <v>133</v>
       </c>
@@ -6905,7 +6993,7 @@
       <c r="AJ18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK18" s="27" t="s">
+      <c r="AK18" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6952,15 +7040,15 @@
       <c r="N19" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
       <c r="AA19" s="24" t="s">
         <v>131</v>
       </c>
@@ -6974,7 +7062,7 @@
       <c r="AJ19" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AK19" s="28" t="s">
+      <c r="AK19" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7021,15 +7109,15 @@
       <c r="N20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
       <c r="AA20" s="22" t="s">
         <v>133</v>
       </c>
@@ -7043,7 +7131,7 @@
       <c r="AJ20" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK20" s="27" t="s">
+      <c r="AK20" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7090,15 +7178,15 @@
       <c r="N21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
       <c r="AA21" s="24" t="s">
         <v>133</v>
       </c>
@@ -7112,7 +7200,7 @@
       <c r="AJ21" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK21" s="28" t="s">
+      <c r="AK21" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7159,15 +7247,15 @@
       <c r="N22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
       <c r="AA22" s="22" t="s">
         <v>133</v>
       </c>
@@ -7181,7 +7269,7 @@
       <c r="AJ22" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK22" s="27" t="s">
+      <c r="AK22" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7228,15 +7316,15 @@
       <c r="N23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
       <c r="AA23" s="24" t="s">
         <v>133</v>
       </c>
@@ -7250,7 +7338,7 @@
       <c r="AJ23" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK23" s="28" t="s">
+      <c r="AK23" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7297,15 +7385,15 @@
       <c r="N24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
       <c r="AA24" s="22" t="s">
         <v>133</v>
       </c>
@@ -7319,7 +7407,7 @@
       <c r="AJ24" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK24" s="27" t="s">
+      <c r="AK24" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7366,15 +7454,15 @@
       <c r="N25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
       <c r="AA25" s="24" t="s">
         <v>133</v>
       </c>
@@ -7388,7 +7476,7 @@
       <c r="AJ25" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK25" s="28" t="s">
+      <c r="AK25" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7435,15 +7523,15 @@
       <c r="N26" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
       <c r="AA26" s="22" t="s">
         <v>133</v>
       </c>
@@ -7457,7 +7545,7 @@
       <c r="AJ26" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK26" s="27" t="s">
+      <c r="AK26" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7504,15 +7592,15 @@
       <c r="N27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
       <c r="AA27" s="24" t="s">
         <v>133</v>
       </c>
@@ -7526,7 +7614,7 @@
       <c r="AJ27" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK27" s="28" t="s">
+      <c r="AK27" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7591,9 +7679,9 @@
       <c r="T28" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
       <c r="AA28" s="22" t="s">
         <v>133</v>
       </c>
@@ -7607,7 +7695,7 @@
       <c r="AJ28" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK28" s="27" t="s">
+      <c r="AK28" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7654,15 +7742,15 @@
       <c r="N29" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
       <c r="AA29" s="24" t="s">
         <v>133</v>
       </c>
@@ -7676,7 +7764,7 @@
       <c r="AJ29" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK29" s="28" t="s">
+      <c r="AK29" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7723,15 +7811,15 @@
       <c r="N30" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
       <c r="AA30" s="22" t="s">
         <v>133</v>
       </c>
@@ -7745,7 +7833,7 @@
       <c r="AJ30" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK30" s="27" t="s">
+      <c r="AK30" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7804,9 +7892,9 @@
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
       <c r="AA31" s="24" t="s">
         <v>133</v>
       </c>
@@ -7820,7 +7908,7 @@
       <c r="AJ31" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK31" s="28" t="s">
+      <c r="AK31" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7867,15 +7955,15 @@
       <c r="N32" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
       <c r="AA32" s="22" t="s">
         <v>136</v>
       </c>
@@ -7889,7 +7977,7 @@
       <c r="AJ32" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AK32" s="27" t="s">
+      <c r="AK32" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7936,15 +8024,15 @@
       <c r="N33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
       <c r="AA33" s="24" t="s">
         <v>133</v>
       </c>
@@ -7958,7 +8046,7 @@
       <c r="AJ33" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK33" s="28" t="s">
+      <c r="AK33" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8005,15 +8093,15 @@
       <c r="N34" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
       <c r="AA34" s="22" t="s">
         <v>133</v>
       </c>
@@ -8027,7 +8115,7 @@
       <c r="AJ34" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK34" s="27" t="s">
+      <c r="AK34" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8074,15 +8162,15 @@
       <c r="N35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
       <c r="AA35" s="24" t="s">
         <v>133</v>
       </c>
@@ -8096,7 +8184,7 @@
       <c r="AJ35" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK35" s="28" t="s">
+      <c r="AK35" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8143,15 +8231,15 @@
       <c r="N36" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
       <c r="AA36" s="22" t="s">
         <v>133</v>
       </c>
@@ -8165,7 +8253,7 @@
       <c r="AJ36" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK36" s="27" t="s">
+      <c r="AK36" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8221,12 +8309,12 @@
       <c r="Q37" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
       <c r="AA37" s="24" t="s">
         <v>133</v>
       </c>
@@ -8240,7 +8328,7 @@
       <c r="AJ37" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK37" s="28" t="s">
+      <c r="AK37" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8278,15 +8366,15 @@
       <c r="K38" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
       <c r="AA38" s="22" t="s">
         <v>133</v>
       </c>
@@ -8300,7 +8388,7 @@
       <c r="AJ38" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AK38" s="27" t="s">
+      <c r="AK38" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8347,15 +8435,15 @@
       <c r="N39" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
       <c r="AA39" s="24" t="s">
         <v>136</v>
       </c>
@@ -8369,7 +8457,7 @@
       <c r="AJ39" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AK39" s="28" t="s">
+      <c r="AK39" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8398,15 +8486,15 @@
       <c r="H40" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
       <c r="AA40" s="22" t="s">
         <v>133</v>
       </c>
@@ -8420,7 +8508,7 @@
       <c r="AJ40" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AK40" s="27" t="s">
+      <c r="AK40" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8467,15 +8555,15 @@
       <c r="N41" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
       <c r="AA41" s="24" t="s">
         <v>133</v>
       </c>
@@ -8489,7 +8577,7 @@
       <c r="AJ41" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK41" s="28" t="s">
+      <c r="AK41" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8536,15 +8624,15 @@
       <c r="N42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
       <c r="AA42" s="22" t="s">
         <v>133</v>
       </c>
@@ -8558,7 +8646,7 @@
       <c r="AJ42" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK42" s="27" t="s">
+      <c r="AK42" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8605,15 +8693,15 @@
       <c r="N43" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
       <c r="AA43" s="24" t="s">
         <v>133</v>
       </c>
@@ -8627,7 +8715,7 @@
       <c r="AJ43" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK43" s="28" t="s">
+      <c r="AK43" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8674,15 +8762,15 @@
       <c r="N44" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
       <c r="AA44" s="22" t="s">
         <v>136</v>
       </c>
@@ -8696,7 +8784,7 @@
       <c r="AJ44" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AK44" s="27" t="s">
+      <c r="AK44" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8743,15 +8831,15 @@
       <c r="N45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
       <c r="AA45" s="24" t="s">
         <v>133</v>
       </c>
@@ -8765,7 +8853,7 @@
       <c r="AJ45" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK45" s="28" t="s">
+      <c r="AK45" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8812,15 +8900,15 @@
       <c r="N46" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
       <c r="AA46" s="22" t="s">
         <v>133</v>
       </c>
@@ -8834,7 +8922,7 @@
       <c r="AJ46" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK46" s="27" t="s">
+      <c r="AK46" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8881,15 +8969,15 @@
       <c r="N47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
       <c r="AA47" s="24" t="s">
         <v>133</v>
       </c>
@@ -8903,7 +8991,7 @@
       <c r="AJ47" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK47" s="28" t="s">
+      <c r="AK47" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8950,15 +9038,15 @@
       <c r="N48" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
       <c r="AA48" s="22" t="s">
         <v>133</v>
       </c>
@@ -8972,7 +9060,7 @@
       <c r="AJ48" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK48" s="27" t="s">
+      <c r="AK48" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9019,15 +9107,15 @@
       <c r="N49" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
       <c r="AA49" s="24" t="s">
         <v>133</v>
       </c>
@@ -9041,7 +9129,7 @@
       <c r="AJ49" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK49" s="28" t="s">
+      <c r="AK49" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9088,15 +9176,15 @@
       <c r="N50" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
       <c r="AA50" s="22" t="s">
         <v>133</v>
       </c>
@@ -9110,7 +9198,7 @@
       <c r="AJ50" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK50" s="27" t="s">
+      <c r="AK50" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9157,15 +9245,15 @@
       <c r="N51" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
       <c r="AA51" s="24" t="s">
         <v>133</v>
       </c>
@@ -9179,7 +9267,7 @@
       <c r="AJ51" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK51" s="28" t="s">
+      <c r="AK51" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9226,15 +9314,15 @@
       <c r="N52" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
       <c r="AA52" s="22" t="s">
         <v>133</v>
       </c>
@@ -9248,7 +9336,7 @@
       <c r="AJ52" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK52" s="27" t="s">
+      <c r="AK52" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9295,15 +9383,15 @@
       <c r="N53" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
       <c r="AA53" s="24" t="s">
         <v>133</v>
       </c>
@@ -9317,7 +9405,7 @@
       <c r="AJ53" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK53" s="28" t="s">
+      <c r="AK53" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9364,15 +9452,15 @@
       <c r="N54" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
       <c r="AA54" s="22" t="s">
         <v>133</v>
       </c>
@@ -9386,7 +9474,7 @@
       <c r="AJ54" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK54" s="27" t="s">
+      <c r="AK54" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9433,15 +9521,15 @@
       <c r="N55" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
       <c r="AA55" s="24" t="s">
         <v>133</v>
       </c>
@@ -9455,7 +9543,7 @@
       <c r="AJ55" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK55" s="28" t="s">
+      <c r="AK55" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9511,12 +9599,12 @@
       <c r="Q56" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="26"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
       <c r="AA56" s="22" t="s">
         <v>133</v>
       </c>
@@ -9530,7 +9618,7 @@
       <c r="AJ56" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK56" s="27" t="s">
+      <c r="AK56" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9577,15 +9665,15 @@
       <c r="N57" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
       <c r="AA57" s="24" t="s">
         <v>133</v>
       </c>
@@ -9599,7 +9687,7 @@
       <c r="AJ57" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AK57" s="28" t="s">
+      <c r="AK57" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9646,15 +9734,15 @@
       <c r="N58" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
       <c r="AA58" s="22" t="s">
         <v>133</v>
       </c>
@@ -9668,7 +9756,7 @@
       <c r="AJ58" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK58" s="27" t="s">
+      <c r="AK58" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9715,15 +9803,15 @@
       <c r="N59" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
       <c r="AA59" s="24" t="s">
         <v>133</v>
       </c>
@@ -9737,7 +9825,7 @@
       <c r="AJ59" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="AK59" s="28" t="s">
+      <c r="AK59" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9784,15 +9872,15 @@
       <c r="N60" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
       <c r="AA60" s="22" t="s">
         <v>133</v>
       </c>
@@ -9806,7 +9894,7 @@
       <c r="AJ60" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK60" s="27" t="s">
+      <c r="AK60" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9853,15 +9941,15 @@
       <c r="N61" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
       <c r="AA61" s="24" t="s">
         <v>136</v>
       </c>
@@ -9875,7 +9963,7 @@
       <c r="AJ61" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AK61" s="28" t="s">
+      <c r="AK61" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9922,15 +10010,15 @@
       <c r="N62" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
       <c r="AA62" s="22" t="s">
         <v>133</v>
       </c>
@@ -9944,7 +10032,7 @@
       <c r="AJ62" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK62" s="27" t="s">
+      <c r="AK62" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9991,15 +10079,15 @@
       <c r="N63" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="V63" s="26"/>
-      <c r="W63" s="26"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
       <c r="AA63" s="24" t="s">
         <v>133</v>
       </c>
@@ -10013,7 +10101,7 @@
       <c r="AJ63" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK63" s="28" t="s">
+      <c r="AK63" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10060,15 +10148,15 @@
       <c r="N64" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
-      <c r="U64" s="26"/>
-      <c r="V64" s="26"/>
-      <c r="W64" s="26"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
       <c r="AA64" s="22" t="s">
         <v>133</v>
       </c>
@@ -10082,7 +10170,7 @@
       <c r="AJ64" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK64" s="27" t="s">
+      <c r="AK64" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10129,15 +10217,15 @@
       <c r="N65" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="26"/>
-      <c r="W65" s="26"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
       <c r="AA65" s="24" t="s">
         <v>133</v>
       </c>
@@ -10151,7 +10239,7 @@
       <c r="AJ65" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK65" s="28" t="s">
+      <c r="AK65" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10198,15 +10286,15 @@
       <c r="N66" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="26"/>
-      <c r="W66" s="26"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
       <c r="AA66" s="22" t="s">
         <v>133</v>
       </c>
@@ -10220,7 +10308,7 @@
       <c r="AJ66" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK66" s="27" t="s">
+      <c r="AK66" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10267,15 +10355,15 @@
       <c r="N67" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="26"/>
-      <c r="T67" s="26"/>
-      <c r="U67" s="26"/>
-      <c r="V67" s="26"/>
-      <c r="W67" s="26"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
       <c r="AA67" s="24" t="s">
         <v>133</v>
       </c>
@@ -10289,7 +10377,7 @@
       <c r="AJ67" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK67" s="28" t="s">
+      <c r="AK67" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10336,15 +10424,15 @@
       <c r="N68" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="26"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
       <c r="AA68" s="22" t="s">
         <v>133</v>
       </c>
@@ -10358,7 +10446,7 @@
       <c r="AJ68" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK68" s="27" t="s">
+      <c r="AK68" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10405,15 +10493,15 @@
       <c r="N69" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="26"/>
-      <c r="W69" s="26"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
       <c r="AA69" s="24" t="s">
         <v>133</v>
       </c>
@@ -10427,7 +10515,7 @@
       <c r="AJ69" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK69" s="28" t="s">
+      <c r="AK69" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10474,15 +10562,15 @@
       <c r="N70" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="26"/>
-      <c r="T70" s="26"/>
-      <c r="U70" s="26"/>
-      <c r="V70" s="26"/>
-      <c r="W70" s="26"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
       <c r="AA70" s="22" t="s">
         <v>133</v>
       </c>
@@ -10496,7 +10584,7 @@
       <c r="AJ70" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK70" s="27" t="s">
+      <c r="AK70" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10543,15 +10631,15 @@
       <c r="N71" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
-      <c r="U71" s="26"/>
-      <c r="V71" s="26"/>
-      <c r="W71" s="26"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
       <c r="AA71" s="24" t="s">
         <v>133</v>
       </c>
@@ -10565,7 +10653,7 @@
       <c r="AJ71" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK71" s="28" t="s">
+      <c r="AK71" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10612,15 +10700,15 @@
       <c r="N72" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="26"/>
-      <c r="U72" s="26"/>
-      <c r="V72" s="26"/>
-      <c r="W72" s="26"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
       <c r="AA72" s="22" t="s">
         <v>133</v>
       </c>
@@ -10634,7 +10722,7 @@
       <c r="AJ72" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK72" s="27" t="s">
+      <c r="AK72" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10681,15 +10769,15 @@
       <c r="N73" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
-      <c r="U73" s="26"/>
-      <c r="V73" s="26"/>
-      <c r="W73" s="26"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="25"/>
+      <c r="W73" s="25"/>
       <c r="AA73" s="24" t="s">
         <v>136</v>
       </c>
@@ -10703,7 +10791,7 @@
       <c r="AJ73" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AK73" s="28" t="s">
+      <c r="AK73" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10750,15 +10838,15 @@
       <c r="N74" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="26"/>
-      <c r="U74" s="26"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="26"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="25"/>
       <c r="AA74" s="22" t="s">
         <v>136</v>
       </c>
@@ -10772,7 +10860,7 @@
       <c r="AJ74" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AK74" s="27" t="s">
+      <c r="AK74" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10819,15 +10907,15 @@
       <c r="N75" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="26"/>
-      <c r="T75" s="26"/>
-      <c r="U75" s="26"/>
-      <c r="V75" s="26"/>
-      <c r="W75" s="26"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
       <c r="AA75" s="24" t="s">
         <v>133</v>
       </c>
@@ -10841,7 +10929,7 @@
       <c r="AJ75" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK75" s="28" t="s">
+      <c r="AK75" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10888,15 +10976,15 @@
       <c r="N76" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="26"/>
-      <c r="V76" s="26"/>
-      <c r="W76" s="26"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="25"/>
+      <c r="W76" s="25"/>
       <c r="AA76" s="22" t="s">
         <v>133</v>
       </c>
@@ -10910,7 +10998,7 @@
       <c r="AJ76" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK76" s="27" t="s">
+      <c r="AK76" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10957,15 +11045,15 @@
       <c r="N77" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="26"/>
-      <c r="T77" s="26"/>
-      <c r="U77" s="26"/>
-      <c r="V77" s="26"/>
-      <c r="W77" s="26"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="25"/>
+      <c r="W77" s="25"/>
       <c r="AA77" s="24" t="s">
         <v>133</v>
       </c>
@@ -10979,7 +11067,7 @@
       <c r="AJ77" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK77" s="28" t="s">
+      <c r="AK77" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11026,15 +11114,15 @@
       <c r="N78" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="26"/>
-      <c r="S78" s="26"/>
-      <c r="T78" s="26"/>
-      <c r="U78" s="26"/>
-      <c r="V78" s="26"/>
-      <c r="W78" s="26"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="25"/>
+      <c r="W78" s="25"/>
       <c r="AA78" s="22" t="s">
         <v>133</v>
       </c>
@@ -11048,7 +11136,7 @@
       <c r="AJ78" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK78" s="27" t="s">
+      <c r="AK78" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11095,15 +11183,15 @@
       <c r="N79" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
-      <c r="U79" s="26"/>
-      <c r="V79" s="26"/>
-      <c r="W79" s="26"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="25"/>
+      <c r="V79" s="25"/>
+      <c r="W79" s="25"/>
       <c r="AA79" s="24" t="s">
         <v>133</v>
       </c>
@@ -11117,7 +11205,7 @@
       <c r="AJ79" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK79" s="28" t="s">
+      <c r="AK79" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11164,15 +11252,15 @@
       <c r="N80" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="26"/>
-      <c r="S80" s="26"/>
-      <c r="T80" s="26"/>
-      <c r="U80" s="26"/>
-      <c r="V80" s="26"/>
-      <c r="W80" s="26"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+      <c r="V80" s="25"/>
+      <c r="W80" s="25"/>
       <c r="AA80" s="22" t="s">
         <v>133</v>
       </c>
@@ -11186,7 +11274,7 @@
       <c r="AJ80" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK80" s="27" t="s">
+      <c r="AK80" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11233,15 +11321,15 @@
       <c r="N81" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="26"/>
-      <c r="S81" s="26"/>
-      <c r="T81" s="26"/>
-      <c r="U81" s="26"/>
-      <c r="V81" s="26"/>
-      <c r="W81" s="26"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+      <c r="W81" s="25"/>
       <c r="AA81" s="24" t="s">
         <v>133</v>
       </c>
@@ -11255,7 +11343,7 @@
       <c r="AJ81" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK81" s="28" t="s">
+      <c r="AK81" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11302,15 +11390,15 @@
       <c r="N82" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="26"/>
-      <c r="T82" s="26"/>
-      <c r="U82" s="26"/>
-      <c r="V82" s="26"/>
-      <c r="W82" s="26"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="25"/>
+      <c r="V82" s="25"/>
+      <c r="W82" s="25"/>
       <c r="AA82" s="22" t="s">
         <v>133</v>
       </c>
@@ -11324,7 +11412,7 @@
       <c r="AJ82" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK82" s="27" t="s">
+      <c r="AK82" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11371,15 +11459,15 @@
       <c r="N83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
-      <c r="U83" s="26"/>
-      <c r="V83" s="26"/>
-      <c r="W83" s="26"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
+      <c r="V83" s="25"/>
+      <c r="W83" s="25"/>
       <c r="AA83" s="24" t="s">
         <v>133</v>
       </c>
@@ -11393,7 +11481,7 @@
       <c r="AJ83" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK83" s="28" t="s">
+      <c r="AK83" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11440,15 +11528,15 @@
       <c r="N84" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
-      <c r="U84" s="26"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="26"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25"/>
+      <c r="W84" s="25"/>
       <c r="AA84" s="22" t="s">
         <v>133</v>
       </c>
@@ -11462,7 +11550,7 @@
       <c r="AJ84" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK84" s="27" t="s">
+      <c r="AK84" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11509,15 +11597,15 @@
       <c r="N85" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="26"/>
-      <c r="S85" s="26"/>
-      <c r="T85" s="26"/>
-      <c r="U85" s="26"/>
-      <c r="V85" s="26"/>
-      <c r="W85" s="26"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="25"/>
+      <c r="W85" s="25"/>
       <c r="AA85" s="24" t="s">
         <v>133</v>
       </c>
@@ -11531,7 +11619,7 @@
       <c r="AJ85" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK85" s="28" t="s">
+      <c r="AK85" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11578,15 +11666,15 @@
       <c r="N86" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="26"/>
-      <c r="T86" s="26"/>
-      <c r="U86" s="26"/>
-      <c r="V86" s="26"/>
-      <c r="W86" s="26"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+      <c r="W86" s="25"/>
       <c r="AA86" s="22" t="s">
         <v>133</v>
       </c>
@@ -11600,7 +11688,7 @@
       <c r="AJ86" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK86" s="27" t="s">
+      <c r="AK86" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11647,15 +11735,15 @@
       <c r="N87" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26"/>
-      <c r="R87" s="26"/>
-      <c r="S87" s="26"/>
-      <c r="T87" s="26"/>
-      <c r="U87" s="26"/>
-      <c r="V87" s="26"/>
-      <c r="W87" s="26"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="25"/>
+      <c r="W87" s="25"/>
       <c r="AA87" s="24" t="s">
         <v>133</v>
       </c>
@@ -11669,7 +11757,7 @@
       <c r="AJ87" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK87" s="28" t="s">
+      <c r="AK87" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11716,15 +11804,15 @@
       <c r="N88" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="26"/>
-      <c r="S88" s="26"/>
-      <c r="T88" s="26"/>
-      <c r="U88" s="26"/>
-      <c r="V88" s="26"/>
-      <c r="W88" s="26"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="25"/>
+      <c r="W88" s="25"/>
       <c r="AA88" s="22" t="s">
         <v>133</v>
       </c>
@@ -11738,7 +11826,7 @@
       <c r="AJ88" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK88" s="27" t="s">
+      <c r="AK88" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11785,15 +11873,15 @@
       <c r="N89" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="26"/>
-      <c r="S89" s="26"/>
-      <c r="T89" s="26"/>
-      <c r="U89" s="26"/>
-      <c r="V89" s="26"/>
-      <c r="W89" s="26"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="25"/>
+      <c r="V89" s="25"/>
+      <c r="W89" s="25"/>
       <c r="AA89" s="24" t="s">
         <v>133</v>
       </c>
@@ -11807,7 +11895,7 @@
       <c r="AJ89" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK89" s="28" t="s">
+      <c r="AK89" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11854,15 +11942,15 @@
       <c r="N90" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="26"/>
-      <c r="T90" s="26"/>
-      <c r="U90" s="26"/>
-      <c r="V90" s="26"/>
-      <c r="W90" s="26"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
+      <c r="V90" s="25"/>
+      <c r="W90" s="25"/>
       <c r="AA90" s="22" t="s">
         <v>133</v>
       </c>
@@ -11876,7 +11964,7 @@
       <c r="AJ90" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AK90" s="27" t="s">
+      <c r="AK90" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11923,15 +12011,15 @@
       <c r="N91" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O91" s="26"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="26"/>
-      <c r="S91" s="26"/>
-      <c r="T91" s="26"/>
-      <c r="U91" s="26"/>
-      <c r="V91" s="26"/>
-      <c r="W91" s="26"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="25"/>
+      <c r="V91" s="25"/>
+      <c r="W91" s="25"/>
       <c r="AA91" s="24" t="s">
         <v>133</v>
       </c>
@@ -11945,7 +12033,7 @@
       <c r="AJ91" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK91" s="28" t="s">
+      <c r="AK91" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11992,15 +12080,15 @@
       <c r="N92" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="26"/>
-      <c r="V92" s="26"/>
-      <c r="W92" s="26"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="25"/>
+      <c r="W92" s="25"/>
       <c r="AA92" s="22" t="s">
         <v>133</v>
       </c>
@@ -12014,7 +12102,7 @@
       <c r="AJ92" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK92" s="27" t="s">
+      <c r="AK92" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12061,15 +12149,15 @@
       <c r="N93" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="26"/>
-      <c r="V93" s="26"/>
-      <c r="W93" s="26"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="25"/>
+      <c r="W93" s="25"/>
       <c r="AA93" s="24" t="s">
         <v>133</v>
       </c>
@@ -12083,7 +12171,7 @@
       <c r="AJ93" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AK93" s="28" t="s">
+      <c r="AK93" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12130,15 +12218,15 @@
       <c r="N94" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="26"/>
-      <c r="S94" s="26"/>
-      <c r="T94" s="26"/>
-      <c r="U94" s="26"/>
-      <c r="V94" s="26"/>
-      <c r="W94" s="26"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="25"/>
       <c r="AA94" s="22" t="s">
         <v>133</v>
       </c>
@@ -12152,7 +12240,7 @@
       <c r="AJ94" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK94" s="27" t="s">
+      <c r="AK94" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12199,15 +12287,15 @@
       <c r="N95" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="26"/>
-      <c r="T95" s="26"/>
-      <c r="U95" s="26"/>
-      <c r="V95" s="26"/>
-      <c r="W95" s="26"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="25"/>
+      <c r="W95" s="25"/>
       <c r="AA95" s="24" t="s">
         <v>134</v>
       </c>
@@ -12221,7 +12309,7 @@
       <c r="AJ95" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="AK95" s="28" t="s">
+      <c r="AK95" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12268,15 +12356,15 @@
       <c r="N96" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="26"/>
-      <c r="T96" s="26"/>
-      <c r="U96" s="26"/>
-      <c r="V96" s="26"/>
-      <c r="W96" s="26"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
       <c r="AA96" s="22" t="s">
         <v>133</v>
       </c>
@@ -12290,7 +12378,7 @@
       <c r="AJ96" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK96" s="27" t="s">
+      <c r="AK96" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12337,15 +12425,15 @@
       <c r="N97" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="26"/>
-      <c r="S97" s="26"/>
-      <c r="T97" s="26"/>
-      <c r="U97" s="26"/>
-      <c r="V97" s="26"/>
-      <c r="W97" s="26"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="25"/>
+      <c r="W97" s="25"/>
       <c r="AA97" s="24" t="s">
         <v>133</v>
       </c>
@@ -12359,7 +12447,7 @@
       <c r="AJ97" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK97" s="28" t="s">
+      <c r="AK97" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12406,15 +12494,15 @@
       <c r="N98" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="26"/>
-      <c r="S98" s="26"/>
-      <c r="T98" s="26"/>
-      <c r="U98" s="26"/>
-      <c r="V98" s="26"/>
-      <c r="W98" s="26"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="25"/>
+      <c r="W98" s="25"/>
       <c r="AA98" s="22" t="s">
         <v>133</v>
       </c>
@@ -12428,7 +12516,7 @@
       <c r="AJ98" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK98" s="27" t="s">
+      <c r="AK98" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12475,15 +12563,15 @@
       <c r="N99" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O99" s="26"/>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="26"/>
-      <c r="S99" s="26"/>
-      <c r="T99" s="26"/>
-      <c r="U99" s="26"/>
-      <c r="V99" s="26"/>
-      <c r="W99" s="26"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="25"/>
+      <c r="U99" s="25"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="25"/>
       <c r="AA99" s="24" t="s">
         <v>133</v>
       </c>
@@ -12497,7 +12585,7 @@
       <c r="AJ99" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK99" s="28" t="s">
+      <c r="AK99" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12544,15 +12632,15 @@
       <c r="N100" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="26"/>
-      <c r="R100" s="26"/>
-      <c r="S100" s="26"/>
-      <c r="T100" s="26"/>
-      <c r="U100" s="26"/>
-      <c r="V100" s="26"/>
-      <c r="W100" s="26"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="25"/>
+      <c r="W100" s="25"/>
       <c r="AA100" s="22" t="s">
         <v>133</v>
       </c>
@@ -12566,7 +12654,7 @@
       <c r="AJ100" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK100" s="27" t="s">
+      <c r="AK100" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12613,15 +12701,15 @@
       <c r="N101" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="26"/>
-      <c r="S101" s="26"/>
-      <c r="T101" s="26"/>
-      <c r="U101" s="26"/>
-      <c r="V101" s="26"/>
-      <c r="W101" s="26"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="25"/>
+      <c r="V101" s="25"/>
+      <c r="W101" s="25"/>
       <c r="AA101" s="24" t="s">
         <v>133</v>
       </c>
@@ -12635,7 +12723,7 @@
       <c r="AJ101" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK101" s="28" t="s">
+      <c r="AK101" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12682,15 +12770,15 @@
       <c r="N102" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
-      <c r="R102" s="26"/>
-      <c r="S102" s="26"/>
-      <c r="T102" s="26"/>
-      <c r="U102" s="26"/>
-      <c r="V102" s="26"/>
-      <c r="W102" s="26"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="25"/>
       <c r="AA102" s="22" t="s">
         <v>133</v>
       </c>
@@ -12704,7 +12792,7 @@
       <c r="AJ102" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK102" s="27" t="s">
+      <c r="AK102" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12751,15 +12839,15 @@
       <c r="N103" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="26"/>
-      <c r="R103" s="26"/>
-      <c r="S103" s="26"/>
-      <c r="T103" s="26"/>
-      <c r="U103" s="26"/>
-      <c r="V103" s="26"/>
-      <c r="W103" s="26"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="25"/>
+      <c r="W103" s="25"/>
       <c r="AA103" s="24" t="s">
         <v>133</v>
       </c>
@@ -12773,7 +12861,7 @@
       <c r="AJ103" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK103" s="28" t="s">
+      <c r="AK103" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12820,15 +12908,15 @@
       <c r="N104" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="26"/>
-      <c r="S104" s="26"/>
-      <c r="T104" s="26"/>
-      <c r="U104" s="26"/>
-      <c r="V104" s="26"/>
-      <c r="W104" s="26"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="25"/>
+      <c r="T104" s="25"/>
+      <c r="U104" s="25"/>
+      <c r="V104" s="25"/>
+      <c r="W104" s="25"/>
       <c r="AA104" s="22" t="s">
         <v>133</v>
       </c>
@@ -12842,7 +12930,7 @@
       <c r="AJ104" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK104" s="27" t="s">
+      <c r="AK104" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12889,15 +12977,15 @@
       <c r="N105" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="26"/>
-      <c r="R105" s="26"/>
-      <c r="S105" s="26"/>
-      <c r="T105" s="26"/>
-      <c r="U105" s="26"/>
-      <c r="V105" s="26"/>
-      <c r="W105" s="26"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+      <c r="Q105" s="25"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="25"/>
+      <c r="T105" s="25"/>
+      <c r="U105" s="25"/>
+      <c r="V105" s="25"/>
+      <c r="W105" s="25"/>
       <c r="AA105" s="24" t="s">
         <v>133</v>
       </c>
@@ -12911,7 +12999,7 @@
       <c r="AJ105" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK105" s="28" t="s">
+      <c r="AK105" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12958,15 +13046,15 @@
       <c r="N106" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="26"/>
-      <c r="T106" s="26"/>
-      <c r="U106" s="26"/>
-      <c r="V106" s="26"/>
-      <c r="W106" s="26"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="25"/>
+      <c r="T106" s="25"/>
+      <c r="U106" s="25"/>
+      <c r="V106" s="25"/>
+      <c r="W106" s="25"/>
       <c r="AA106" s="22" t="s">
         <v>133</v>
       </c>
@@ -12980,7 +13068,7 @@
       <c r="AJ106" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK106" s="27" t="s">
+      <c r="AK106" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13027,15 +13115,15 @@
       <c r="N107" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="26"/>
-      <c r="W107" s="26"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="25"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="25"/>
+      <c r="T107" s="25"/>
+      <c r="U107" s="25"/>
+      <c r="V107" s="25"/>
+      <c r="W107" s="25"/>
       <c r="AA107" s="24" t="s">
         <v>133</v>
       </c>
@@ -13049,7 +13137,7 @@
       <c r="AJ107" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK107" s="28" t="s">
+      <c r="AK107" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13096,15 +13184,15 @@
       <c r="N108" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26"/>
-      <c r="W108" s="26"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="25"/>
+      <c r="W108" s="25"/>
       <c r="AA108" s="22" t="s">
         <v>133</v>
       </c>
@@ -13118,7 +13206,7 @@
       <c r="AJ108" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK108" s="27" t="s">
+      <c r="AK108" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13165,15 +13253,15 @@
       <c r="N109" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
-      <c r="T109" s="26"/>
-      <c r="U109" s="26"/>
-      <c r="V109" s="26"/>
-      <c r="W109" s="26"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
+      <c r="V109" s="25"/>
+      <c r="W109" s="25"/>
       <c r="AA109" s="24" t="s">
         <v>132</v>
       </c>
@@ -13187,7 +13275,7 @@
       <c r="AJ109" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AK109" s="28" t="s">
+      <c r="AK109" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13234,15 +13322,15 @@
       <c r="N110" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26"/>
-      <c r="R110" s="26"/>
-      <c r="S110" s="26"/>
-      <c r="T110" s="26"/>
-      <c r="U110" s="26"/>
-      <c r="V110" s="26"/>
-      <c r="W110" s="26"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+      <c r="V110" s="25"/>
+      <c r="W110" s="25"/>
       <c r="AA110" s="22" t="s">
         <v>133</v>
       </c>
@@ -13256,7 +13344,7 @@
       <c r="AJ110" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AK110" s="27" t="s">
+      <c r="AK110" s="26" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13303,15 +13391,15 @@
       <c r="N111" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O111" s="26"/>
-      <c r="P111" s="26"/>
-      <c r="Q111" s="26"/>
-      <c r="R111" s="26"/>
-      <c r="S111" s="26"/>
-      <c r="T111" s="26"/>
-      <c r="U111" s="26"/>
-      <c r="V111" s="26"/>
-      <c r="W111" s="26"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="25"/>
+      <c r="W111" s="25"/>
       <c r="AA111" s="24" t="s">
         <v>133</v>
       </c>
@@ -13325,7 +13413,7 @@
       <c r="AJ111" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AK111" s="28" t="s">
+      <c r="AK111" s="27" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15851,13 +15939,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>863</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>865</v>
       </c>
       <c r="D2" s="12">
@@ -15865,13 +15953,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>864</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>866</v>
       </c>
       <c r="D3" s="12">
@@ -15879,13 +15967,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>867</v>
       </c>
       <c r="D4" s="12">
@@ -15893,13 +15981,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>868</v>
       </c>
       <c r="D5" s="12">

--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED29ED-35DA-4843-AC25-06765552C7E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34680" windowHeight="9255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SLA Configuration'!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,12 +47,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -177,12 +178,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -235,12 +236,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -288,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -366,12 +367,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="1120">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3846,12 +3847,31 @@
   </si>
   <si>
     <t>Security Deposit</t>
+  </si>
+  <si>
+    <t>More Airtel Money Secondary History</t>
+  </si>
+  <si>
+    <t>Amount
+(USD)</t>
+  </si>
+  <si>
+    <t>Service Charge
+(USD)</t>
+  </si>
+  <si>
+    <t>Pre balance
+(USD)</t>
+  </si>
+  <si>
+    <t>Post balance
+(USD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -4175,11 +4195,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="4"/>
-    <cellStyle name="Normal 4 3" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -4265,7 +4285,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4308,7 +4328,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,7 +4371,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,7 +4414,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4437,7 +4457,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4732,20 +4752,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4888,17 +4908,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" activeCellId="1" sqref="E9 C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4912,7 +4932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="16" t="s">
         <v>62</v>
       </c>
@@ -4923,7 +4943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
@@ -4934,7 +4954,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="16" t="s">
         <v>64</v>
       </c>
@@ -4945,7 +4965,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="16" t="s">
         <v>65</v>
       </c>
@@ -4956,7 +4976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="16">
       <c r="B6" s="17" t="s">
         <v>133</v>
       </c>
@@ -4964,7 +4984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="16">
       <c r="B7" s="17" t="s">
         <v>134</v>
       </c>
@@ -4972,7 +4992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="16">
       <c r="B8" s="17" t="s">
         <v>135</v>
       </c>
@@ -4996,22 +5016,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="18" t="s">
         <v>48</v>
       </c>
@@ -5103,21 +5123,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
@@ -5128,7 +5148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="8" t="s">
         <v>56</v>
       </c>
@@ -5137,7 +5157,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -5146,7 +5166,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
@@ -5155,7 +5175,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
@@ -5164,7 +5184,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -5181,17 +5201,17 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5247,21 +5267,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5287,31 +5307,31 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="27" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="27" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="27" customWidth="1"/>
     <col min="11" max="11" width="12" style="27" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="27" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.33203125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="27" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="1" t="s">
         <v>871</v>
       </c>
@@ -5352,7 +5372,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141.75">
+    <row r="2" spans="1:13" ht="153">
       <c r="A2" s="1" t="s">
         <v>884</v>
       </c>
@@ -5387,23 +5407,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" style="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5639,16 +5659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="18" t="s">
         <v>869</v>
       </c>
@@ -5659,7 +5679,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="19" t="s">
         <v>136</v>
       </c>
@@ -5670,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="19" t="s">
         <v>137</v>
       </c>
@@ -5681,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="19" t="s">
         <v>130</v>
       </c>
@@ -5698,22 +5718,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="20"/>
+    <col min="1" max="1" width="24.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="38" t="s">
         <v>1022</v>
       </c>
@@ -5724,7 +5744,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="38" t="s">
         <v>1025</v>
       </c>
@@ -5735,7 +5755,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="47.25">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="38" t="s">
         <v>1028</v>
       </c>
@@ -5746,7 +5766,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="38" t="s">
         <v>1031</v>
       </c>
@@ -5757,7 +5777,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="38" t="s">
         <v>1034</v>
       </c>
@@ -5768,7 +5788,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5">
+    <row r="6" spans="1:3" ht="34">
       <c r="A6" s="38" t="s">
         <v>1037</v>
       </c>
@@ -5777,7 +5797,7 @@
       </c>
       <c r="C6" s="39"/>
     </row>
-    <row r="7" spans="1:3" ht="31.5">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="38" t="s">
         <v>1039</v>
       </c>
@@ -5788,7 +5808,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5">
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="38" t="s">
         <v>1042</v>
       </c>
@@ -5799,7 +5819,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5">
+    <row r="9" spans="1:3" ht="17">
       <c r="A9" s="38" t="s">
         <v>1045</v>
       </c>
@@ -5810,7 +5830,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.25">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="38" t="s">
         <v>1048</v>
       </c>
@@ -5821,7 +5841,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="38" t="s">
         <v>1051</v>
       </c>
@@ -5832,7 +5852,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="38" t="s">
         <v>1054</v>
       </c>
@@ -5843,7 +5863,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="38" t="s">
         <v>1057</v>
       </c>
@@ -5852,7 +5872,7 @@
       </c>
       <c r="C13" s="39"/>
     </row>
-    <row r="14" spans="1:3" ht="31.5">
+    <row r="14" spans="1:3" ht="17">
       <c r="A14" s="38" t="s">
         <v>1059</v>
       </c>
@@ -5861,7 +5881,7 @@
       </c>
       <c r="C14" s="39"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="38" t="s">
         <v>1061</v>
       </c>
@@ -5878,20 +5898,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29"/>
-    <col min="3" max="3" width="15.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="29"/>
+    <col min="2" max="2" width="9.1640625" style="29"/>
+    <col min="3" max="3" width="15.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5929,7 +5949,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="10" t="s">
         <v>136</v>
       </c>
@@ -5950,7 +5970,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="10" t="s">
         <v>131</v>
       </c>
@@ -5971,7 +5991,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="10" t="s">
         <v>135</v>
       </c>
@@ -5999,19 +6019,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -6052,25 +6072,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6115,7 +6135,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="12" t="s">
         <v>68</v>
       </c>
@@ -6169,7 +6189,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="12" t="s">
         <v>91</v>
       </c>
@@ -6443,7 +6463,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="31" t="s">
         <v>943</v>
       </c>
@@ -6588,7 +6608,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="45">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="31" t="s">
         <v>978</v>
       </c>
@@ -6629,119 +6649,133 @@
         <v>983</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="32">
       <c r="A20" s="31" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>979</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>981</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>982</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="31" t="s">
         <v>984</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>985</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D21" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E21" s="31" t="s">
         <v>987</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F21" s="31" t="s">
         <v>988</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G21" s="31" t="s">
         <v>989</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="12" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>964</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>1071</v>
-      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="12" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>1075</v>
-      </c>
       <c r="G22" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+        <v>1068</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>1071</v>
+      </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
-      <c r="A23" s="46" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="12"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>892</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -6749,31 +6783,27 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="31" t="s">
-        <v>1098</v>
+    <row r="24" spans="1:13" ht="17">
+      <c r="A24" s="46" t="s">
+        <v>1093</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>26</v>
+        <v>1095</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>86</v>
+        <v>1096</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>1103</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -6782,58 +6812,90 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="31" t="s">
         <v>1104</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B26" s="31" t="s">
         <v>1105</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C26" s="31" t="s">
         <v>1106</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D26" s="31" t="s">
         <v>1107</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E26" s="31" t="s">
         <v>1108</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F26" s="31" t="s">
         <v>1109</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G26" s="31" t="s">
         <v>1110</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H26" s="31" t="s">
         <v>1111</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I26" s="31" t="s">
         <v>1112</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J26" s="31" t="s">
         <v>1113</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K26" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L26" s="31" t="s">
         <v>1114</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView topLeftCell="AO1" workbookViewId="0">
       <selection activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:55" s="20" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="40" t="s">
@@ -7062,20 +7124,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="3" width="9.1640625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9407,27 +9469,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I111" sqref="I2:I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="17" width="9.140625" style="1" collapsed="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="17" width="9.1640625" style="1" collapsed="1"/>
+    <col min="18" max="18" width="11.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11355,7 +11417,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R85"/>
+  <autoFilter ref="A1:R85" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -11363,22 +11425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BC111"/>
   <sheetViews>
     <sheetView topLeftCell="AQ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AV1" sqref="AV1:BC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="20" customFormat="1">
@@ -16968,24 +17030,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -19284,23 +19346,23 @@
       <c r="F126" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F126"/>
+  <autoFilter ref="A1:F126" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="14" t="s">
         <v>25</v>
       </c>

--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -5,37 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED29ED-35DA-4843-AC25-06765552C7E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7C9A5-4052-4F4A-8423-1D9477E9B8DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name=" Priority" sheetId="2" r:id="rId2"/>
     <sheet name="Headers" sheetId="3" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId4"/>
-    <sheet name="Assignment Rule" sheetId="22" r:id="rId5"/>
-    <sheet name="SLA Configuration" sheetId="21" r:id="rId6"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId7"/>
-    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId8"/>
-    <sheet name="FTRTickets-San" sheetId="12" r:id="rId9"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
-    <sheet name="PinnedTags" sheetId="8" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId12"/>
-    <sheet name="TemplateManagement" sheetId="14" r:id="rId13"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="16" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="17" r:id="rId16"/>
-    <sheet name="Transfer To Queue" sheetId="19" r:id="rId17"/>
-    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId18"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId19"/>
+    <sheet name="OpenAPILoginSheet" sheetId="23" r:id="rId4"/>
+    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId5"/>
+    <sheet name="Assignment Rule" sheetId="22" r:id="rId6"/>
+    <sheet name="SLA Configuration" sheetId="21" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId8"/>
+    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId9"/>
+    <sheet name="FTRTickets-San" sheetId="12" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="8" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="14" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
+    <sheet name="Authentication Policy" sheetId="16" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="17" r:id="rId17"/>
+    <sheet name="Transfer To Queue" sheetId="19" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId19"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SLA Configuration'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SLA Configuration'!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -498,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="1127">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3866,13 +3867,34 @@
   <si>
     <t>Post balance
 (USD)</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3967,6 +3989,13 @@
       <sz val="13"/>
       <color rgb="FF1C293B"/>
       <name val="Tondo-regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4124,7 +4153,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -4192,6 +4221,9 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4908,6 +4940,61 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5015,7 +5102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5122,7 +5209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5200,7 +5287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5266,7 +5353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -5306,7 +5393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -5406,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -5658,7 +5745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5717,7 +5804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5897,7 +5984,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -6018,64 +6158,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -6888,6 +6975,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5019A07-3447-304A-8B5F-11BFD86B8412}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="47" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="47" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
@@ -7123,7 +7259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
@@ -9468,7 +9604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R111"/>
   <sheetViews>
@@ -11424,7 +11560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BC111"/>
   <sheetViews>
@@ -17029,7 +17165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
@@ -19350,59 +19486,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F9A2C6-D9C7-014F-B5C0-056FF8110D81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9562855B-8B98-1B47-89CF-F54DB9D6BC8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,28 @@
     <sheet name="Headers" sheetId="3" r:id="rId3"/>
     <sheet name="OpenAPILoginSheet" sheetId="23" r:id="rId4"/>
     <sheet name="OpenAPIClientConfig" sheetId="24" r:id="rId5"/>
-    <sheet name="ClientConfig" sheetId="25" r:id="rId6"/>
-    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId7"/>
-    <sheet name="Assignment Rule" sheetId="22" r:id="rId8"/>
-    <sheet name="SLA Configuration" sheetId="21" r:id="rId9"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId10"/>
-    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId11"/>
-    <sheet name="FTRTickets-San" sheetId="12" r:id="rId12"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
-    <sheet name="PinnedTags" sheetId="8" r:id="rId14"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId15"/>
-    <sheet name="TemplateManagement" sheetId="14" r:id="rId16"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId17"/>
-    <sheet name="Authentication Policy" sheetId="16" r:id="rId18"/>
-    <sheet name="Action Tagging" sheetId="17" r:id="rId19"/>
-    <sheet name="Transfer To Queue" sheetId="19" r:id="rId20"/>
-    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId21"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId22"/>
+    <sheet name="AgentDetails" sheetId="26" r:id="rId6"/>
+    <sheet name="ClientConfig" sheetId="25" r:id="rId7"/>
+    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId8"/>
+    <sheet name="Assignment Rule" sheetId="22" r:id="rId9"/>
+    <sheet name="SLA Configuration" sheetId="21" r:id="rId10"/>
+    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId11"/>
+    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId12"/>
+    <sheet name="FTRTickets-San" sheetId="12" r:id="rId13"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId14"/>
+    <sheet name="PinnedTags" sheetId="8" r:id="rId15"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId16"/>
+    <sheet name="TemplateManagement" sheetId="14" r:id="rId17"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId18"/>
+    <sheet name="Authentication Policy" sheetId="16" r:id="rId19"/>
+    <sheet name="Action Tagging" sheetId="17" r:id="rId20"/>
+    <sheet name="Transfer To Queue" sheetId="19" r:id="rId21"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId22"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'SLA Configuration'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'SLA Configuration'!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -501,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1135">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3902,6 +3903,18 @@
   </si>
   <si>
     <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
@@ -4955,6 +4968,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R111"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I111" sqref="I2:I111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="17" width="9.1640625" style="1" collapsed="1"/>
+    <col min="18" max="18" width="11.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="R2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="R3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="R4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="R5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="R6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="R7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="R8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="R9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="R10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="R11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="R12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="R13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="R14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="R15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>SUM(J16,L16,N16,P16)</f>
+        <v>24</v>
+      </c>
+      <c r="R16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" ref="Q17:Q80" si="0">SUM(J17,L17,N17,P17)</f>
+        <v>24</v>
+      </c>
+      <c r="R17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R34" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R46" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R49" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R50" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R52" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J53" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R53" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R54" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R55" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R56" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J57" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R57" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R58" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R60" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J61" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R61" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R62" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J63" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R63" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J64" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R64" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J65" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R65" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R66" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J67" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R67" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R68" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J69" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R69" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R70" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J71" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R71" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J72" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R72" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="J73" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R73" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J74" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R74" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R75" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R76" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J77" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R77" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R78" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R79" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J80" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="R80" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J81" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" ref="Q81:Q111" si="1">SUM(J81,L81,N81,P81)</f>
+        <v>24</v>
+      </c>
+      <c r="R81" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J82" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R82" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J83" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q83" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R83" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J84" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R84" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J85" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R85" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J86" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R86" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J87" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R87" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J88" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R88" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J89" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R89" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="I90" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J90" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R90" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J91" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R91" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J92" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R92" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J93" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q93" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R93" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="I94" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J94" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q94" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R94" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J95" s="24">
+        <v>72</v>
+      </c>
+      <c r="Q95" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="R95" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="I96" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J96" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R96" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="I97" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J97" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R97" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J98" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q98" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R98" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="I99" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J99" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q99" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R99" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J100" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q100" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R100" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="I101" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J101" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q101" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R101" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="I102" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J102" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q102" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R102" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="I103" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J103" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q103" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R103" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="I104" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J104" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q104" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R104" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="I105" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J105" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R105" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="I106" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J106" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q106" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R106" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="I107" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J107" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q107" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R107" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J108" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q108" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R108" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="I109" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J109" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q109" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R109" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="I110" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J110" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q110" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R110" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="I111" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J111" s="24">
+        <v>24</v>
+      </c>
+      <c r="Q111" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R111" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R85" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BC111"/>
   <sheetViews>
@@ -10559,7 +12528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
@@ -12882,7 +14851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -12937,7 +14906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -13045,7 +15014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -13152,7 +15121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -13230,7 +15199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -13296,7 +15265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -13336,7 +15305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -13436,7 +15405,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -13688,60 +15710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13800,7 +15769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -13980,7 +15949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -14970,7 +16939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEEC4B7-F7B0-3649-AC49-F510E7328F9B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -15006,6 +16975,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE2070A-B181-5E48-BEC8-3FEE1E8E22A5}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="48" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4DF625-88D7-9842-BAE8-CA5EFCBE7005}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -15047,7 +17051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
@@ -15283,7 +17287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
@@ -17626,1960 +19630,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R111"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I111" sqref="I2:I111"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="17" width="9.1640625" style="1" collapsed="1"/>
-    <col min="18" max="18" width="11.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="18" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>915</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>917</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>918</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>919</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="R2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="R3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="R4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="R5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="R6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="R7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="R8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="R9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="R10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="R11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="R12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="R13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="R14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="R15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>SUM(J16,L16,N16,P16)</f>
-        <v>24</v>
-      </c>
-      <c r="R16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" ref="Q17:Q80" si="0">SUM(J17,L17,N17,P17)</f>
-        <v>24</v>
-      </c>
-      <c r="R17" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R19" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R20" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R21" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R22" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R23" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R24" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R25" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R26" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R27" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R28" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R29" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R30" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R31" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R32" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R33" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R34" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J35" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R35" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R36" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J37" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q37" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R37" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J38" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R38" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J39" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R39" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J40" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R40" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J41" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q41" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R41" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J42" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R42" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R43" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R44" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J45" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q45" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R45" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R46" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J47" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R47" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J48" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R48" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R49" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J50" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R50" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J51" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R51" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J52" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R52" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J53" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q53" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R53" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J54" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q54" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R54" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J55" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q55" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R55" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J56" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q56" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R56" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J57" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q57" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R57" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J58" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q58" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R58" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J59" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R59" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="I60" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R60" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J61" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q61" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R61" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J62" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q62" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R62" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="A63" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J63" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q63" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R63" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J64" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q64" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R64" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
-      <c r="A65" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J65" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q65" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R65" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
-      <c r="A66" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J66" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q66" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R66" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
-      <c r="A67" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J67" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q67" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R67" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J68" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q68" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R68" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J69" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q69" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R69" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J70" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q70" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R70" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="A71" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J71" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q71" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R71" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J72" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q72" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R72" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="A73" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J73" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q73" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R73" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
-      <c r="A74" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J74" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q74" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R74" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
-      <c r="A75" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J75" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q75" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R75" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
-      <c r="A76" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J76" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q76" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R76" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
-      <c r="A77" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J77" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q77" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R77" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
-      <c r="A78" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J78" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q78" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R78" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
-      <c r="A79" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J79" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q79" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R79" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="A80" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="I80" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J80" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q80" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="R80" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J81" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q81" s="1">
-        <f t="shared" ref="Q81:Q111" si="1">SUM(J81,L81,N81,P81)</f>
-        <v>24</v>
-      </c>
-      <c r="R81" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
-      <c r="A82" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J82" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q82" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R82" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
-      <c r="A83" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J83" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q83" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R83" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
-      <c r="A84" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="I84" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J84" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q84" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R84" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
-      <c r="A85" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J85" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q85" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R85" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J86" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q86" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R86" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="A87" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J87" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q87" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R87" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="I88" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J88" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q88" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R88" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J89" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q89" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R89" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="I90" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J90" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q90" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R90" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="I91" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J91" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q91" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R91" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
-      <c r="A92" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="I92" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J92" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q92" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R92" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
-      <c r="A93" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="I93" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J93" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q93" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R93" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
-      <c r="A94" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="I94" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J94" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q94" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R94" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
-      <c r="A95" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="I95" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="J95" s="24">
-        <v>72</v>
-      </c>
-      <c r="Q95" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="R95" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="A96" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="I96" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J96" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q96" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R96" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
-      <c r="A97" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="I97" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J97" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q97" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R97" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
-      <c r="A98" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="I98" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J98" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q98" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R98" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
-      <c r="A99" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="I99" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J99" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q99" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R99" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
-      <c r="A100" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="I100" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J100" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q100" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R100" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
-      <c r="A101" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="I101" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J101" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q101" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R101" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
-      <c r="A102" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="I102" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J102" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q102" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R102" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="A103" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="I103" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J103" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q103" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R103" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="I104" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J104" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q104" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R104" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="A105" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="I105" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J105" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q105" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R105" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="A106" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="I106" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J106" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q106" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R106" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="A107" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="I107" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J107" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q107" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R107" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="A108" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J108" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q108" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R108" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="A109" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="I109" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J109" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q109" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R109" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="A110" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="I110" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J110" s="22">
-        <v>24</v>
-      </c>
-      <c r="Q110" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R110" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="A111" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J111" s="24">
-        <v>24</v>
-      </c>
-      <c r="Q111" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R111" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:R85" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9562855B-8B98-1B47-89CF-F54DB9D6BC8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE14D83-BE99-A246-B080-73C89AC302DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="1138">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3915,13 +3915,22 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4023,6 +4032,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4180,7 +4195,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -4252,6 +4267,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15310,7 +15334,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -15398,6 +15422,9 @@
       </c>
       <c r="I2" s="27" t="s">
         <v>891</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -15771,10 +15798,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -15943,6 +15970,15 @@
       <c r="C15" s="38" t="s">
         <v>1063</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="51">
+      <c r="A16" s="49" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C16" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16978,7 +17014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE2070A-B181-5E48-BEC8-3FEE1E8E22A5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE14D83-BE99-A246-B080-73C89AC302DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B6664-5541-6643-BE38-6F1921ACE183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="1138">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3282,19 +3282,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -3924,13 +3912,25 @@
   </si>
   <si>
     <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4039,6 +4039,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -4090,7 +4097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -4180,6 +4187,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4195,7 +4215,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -4276,6 +4296,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4896,10 +4919,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4907,7 +4930,7 @@
         <v>2390932</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C2" t="s">
         <v>114</v>
@@ -4919,10 +4942,10 @@
         <v>118</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -4930,7 +4953,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
@@ -4939,10 +4962,10 @@
         <v>334705780</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4950,7 +4973,7 @@
         <v>2388008</v>
       </c>
       <c r="B4" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
@@ -4959,10 +4982,10 @@
         <v>332700113</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -4970,7 +4993,7 @@
         <v>2390932</v>
       </c>
       <c r="B5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C5" t="s">
         <v>117</v>
@@ -4979,10 +5002,10 @@
         <v>334705780</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5040,28 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="18" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>1078</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>1079</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>1080</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>1084</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>41</v>
@@ -5068,7 +5091,7 @@
         <v>919</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -7046,16 +7069,16 @@
         <v>32</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AC1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>34</v>
@@ -7064,7 +7087,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="AH1" s="12" t="s">
         <v>36</v>
@@ -7073,7 +7096,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="AK1" s="12" t="s">
         <v>38</v>
@@ -7082,7 +7105,7 @@
         <v>32</v>
       </c>
       <c r="AM1" s="12" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="AN1" s="12" t="s">
         <v>40</v>
@@ -7091,7 +7114,7 @@
         <v>32</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="AQ1" s="12" t="s">
         <v>113</v>
@@ -7100,7 +7123,7 @@
         <v>32</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="AT1" s="12" t="s">
         <v>912</v>
@@ -7109,28 +7132,28 @@
         <v>32</v>
       </c>
       <c r="AV1" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
         <v>1078</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>1079</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>1080</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>1081</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -15424,7 +15447,7 @@
         <v>891</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -15528,13 +15551,13 @@
         <v>898</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -15542,10 +15565,10 @@
         <v>899</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="J2" s="37" t="b">
         <v>1</v>
@@ -15553,7 +15576,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -15562,10 +15585,10 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="I3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="J3" s="37" t="b">
         <v>0</v>
@@ -15573,7 +15596,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -15589,7 +15612,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -15605,7 +15628,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -15621,7 +15644,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -15637,7 +15660,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -15653,7 +15676,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="37" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -15669,7 +15692,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="37" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -15685,7 +15708,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="37" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -15701,7 +15724,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="37" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -15717,7 +15740,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="37" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -15755,7 +15778,7 @@
         <v>870</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -15800,7 +15823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -15814,169 +15837,169 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="38" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="38" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51">
       <c r="A3" s="38" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="38" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="38" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" s="38" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="38" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="38" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="38" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17">
       <c r="A11" s="38" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="38" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="38" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="38" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="38" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="51">
       <c r="A16" s="49" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C16" s="51"/>
     </row>
@@ -16110,8 +16133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16122,7 +16145,7 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
@@ -16158,16 +16181,16 @@
         <v>24</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16">
@@ -16175,7 +16198,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>83</v>
@@ -16214,7 +16237,7 @@
         <v>90</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -16229,7 +16252,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>89</v>
@@ -16238,7 +16261,7 @@
         <v>92</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>86</v>
@@ -16277,7 +16300,7 @@
         <v>98</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -16396,7 +16419,7 @@
         <v>921</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>922</v>
@@ -16419,22 +16442,24 @@
       <c r="A11" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="52" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E11" s="52" t="s">
         <v>926</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>927</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>929</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="G11" s="12"/>
+      <c r="F11" s="53" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>946</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -16444,28 +16469,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="31" t="s">
+        <v>927</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>931</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>934</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>935</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>938</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -16475,19 +16500,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="12" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -16500,10 +16525,10 @@
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" s="31" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>89</v>
@@ -16512,22 +16537,22 @@
         <v>92</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>111</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>98</v>
@@ -16537,7 +16562,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="31" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>26</v>
@@ -16549,13 +16574,13 @@
         <v>90</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>92</v>
@@ -16568,16 +16593,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="31" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>892</v>
@@ -16593,19 +16618,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="31" t="s">
+        <v>957</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>958</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>961</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>962</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>963</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>964</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>965</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -16618,19 +16643,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>972</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>973</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>974</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>975</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>976</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>977</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>892</v>
@@ -16645,107 +16670,107 @@
     </row>
     <row r="19" spans="1:13" ht="32">
       <c r="A19" s="31" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>85</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="L19" s="31" t="s">
         <v>86</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="32">
       <c r="A20" s="31" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>85</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="L20" s="31" t="s">
         <v>86</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="31" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -16756,34 +16781,34 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="12" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>111</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -16791,22 +16816,22 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="12" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>892</v>
@@ -16820,19 +16845,19 @@
     </row>
     <row r="24" spans="1:13" ht="17">
       <c r="A24" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>1093</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>1097</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>49</v>
@@ -16847,10 +16872,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="31" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>26</v>
@@ -16859,16 +16884,16 @@
         <v>86</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -16878,40 +16903,40 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>1104</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="F26" s="31" t="s">
         <v>1105</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="G26" s="31" t="s">
         <v>1106</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="H26" s="31" t="s">
         <v>1107</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="I26" s="31" t="s">
         <v>1108</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="J26" s="31" t="s">
         <v>1109</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>1113</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>137</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="M26" s="12"/>
     </row>
@@ -16938,32 +16963,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="47" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="47"/>
       <c r="B2" s="47" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136">
       <c r="A3" s="47" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="136">
       <c r="A4" s="47" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -16987,10 +17012,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="48" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -17002,7 +17027,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -17022,13 +17047,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="48" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -17037,7 +17062,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -17062,13 +17087,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="48" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -17177,16 +17202,16 @@
         <v>32</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AC1" s="41" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="41" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="AE1" s="41" t="s">
         <v>34</v>
@@ -17195,7 +17220,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="41" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="AH1" s="41" t="s">
         <v>36</v>
@@ -17204,7 +17229,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="20" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="AK1" s="20" t="s">
         <v>38</v>
@@ -17213,7 +17238,7 @@
         <v>32</v>
       </c>
       <c r="AM1" s="20" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="AN1" s="20" t="s">
         <v>40</v>
@@ -17222,7 +17247,7 @@
         <v>32</v>
       </c>
       <c r="AP1" s="20" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="AQ1" s="20" t="s">
         <v>113</v>
@@ -17231,7 +17256,7 @@
         <v>32</v>
       </c>
       <c r="AS1" s="20" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="AT1" s="20" t="s">
         <v>912</v>
@@ -17240,28 +17265,28 @@
         <v>32</v>
       </c>
       <c r="AV1" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
         <v>1078</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>1079</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>1080</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>1081</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -17342,16 +17367,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>1086</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>1090</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>43</v>
@@ -17360,10 +17385,10 @@
         <v>44</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B6664-5541-6643-BE38-6F1921ACE183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1282774B-0BD7-C84B-AC91-6CADF1089B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'SLA Configuration'!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -502,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1144">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3924,15 +3934,40 @@
   </si>
   <si>
     <t>Loan Paid</t>
+  </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4045,6 +4080,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4203,39 +4244,39 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4246,13 +4287,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4264,30 +4305,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4296,9 +4337,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5016,10 +5060,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I111" sqref="I2:I111"/>
+    <sheetView topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:R112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -6415,7 +6459,7 @@
         <v>24</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81:Q111" si="1">SUM(J81,L81,N81,P81)</f>
+        <f t="shared" ref="Q81:Q112" si="1">SUM(J81,L81,N81,P81)</f>
         <v>24</v>
       </c>
       <c r="R81" s="1" t="b">
@@ -6959,6 +7003,23 @@
         <v>24</v>
       </c>
       <c r="R111" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="57" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I112" s="57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="R112" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16133,7 +16194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -17116,8 +17177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BC3" sqref="BC3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17289,49 +17350,31 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
-      <c r="A2" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>67</v>
-      </c>
+    <row r="2" spans="1:55" ht="18">
+      <c r="A2" s="55" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
@@ -17350,10 +17393,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -19687,6 +19730,26 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="57" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D112" s="57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E112" s="57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F112" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="18">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1282774B-0BD7-C84B-AC91-6CADF1089B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD484B-1D1E-B84C-B7A6-819EA3103FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1141">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3166,28 +3166,10 @@
     <t>Question10</t>
   </si>
   <si>
-    <t>KE Action Authentication</t>
-  </si>
-  <si>
-    <t>No authentication policy statement configured</t>
-  </si>
-  <si>
-    <t>Customer Name (Mandatory)</t>
-  </si>
-  <si>
     <t>National ID/Passport/Alien Number (Mandatory)</t>
   </si>
   <si>
     <t>Last Recharge Value (For Prepaid)</t>
-  </si>
-  <si>
-    <t>Frequently dialled number (at least two) – 2 last dialled number, validated on ECMS:</t>
-  </si>
-  <si>
-    <t>Last Recharge Date (For Pre-Paid)</t>
-  </si>
-  <si>
-    <t>Available Credit Balance (For Prepaid)</t>
   </si>
   <si>
     <t>Action</t>
@@ -3915,15 +3897,6 @@
     <t>Ashwani Rao</t>
   </si>
   <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
-  </si>
-  <si>
     <t>Loan ID</t>
   </si>
   <si>
@@ -3952,15 +3925,47 @@
   </si>
   <si>
     <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>DRC Action Authentication</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Frequently dialled number (at least two) – 2 last dialled number, validated on ECMS</t>
+  </si>
+  <si>
+    <t>Last Airtel Money Transaction Amount</t>
+  </si>
+  <si>
+    <t>Last 3 dialed number in Last 24 Hours/Last 1 calendar day</t>
+  </si>
+  <si>
+    <t>Customer needs to answer at least 5 questions.\\\\nDo not share the answers with the customer.\\\\n In SIM/Handset/Dongle lost scenario - Name &amp;amp;amp;amp;amp;amp;amp;amp;amp;amp;amp;amp;amp; Billing Address / DOB Check is mandatory with 2 other additional check.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4069,12 +4074,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4086,6 +4085,13 @@
       <color rgb="FF333399"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4244,39 +4250,39 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4287,13 +4293,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4305,44 +4311,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4963,10 +4975,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4974,7 +4986,7 @@
         <v>2390932</v>
       </c>
       <c r="B2" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C2" t="s">
         <v>114</v>
@@ -4986,10 +4998,10 @@
         <v>118</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -4997,7 +5009,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
@@ -5006,10 +5018,10 @@
         <v>334705780</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5017,7 +5029,7 @@
         <v>2388008</v>
       </c>
       <c r="B4" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
@@ -5026,10 +5038,10 @@
         <v>332700113</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5037,7 +5049,7 @@
         <v>2390932</v>
       </c>
       <c r="B5" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C5" t="s">
         <v>117</v>
@@ -5046,10 +5058,10 @@
         <v>334705780</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -5084,28 +5096,28 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="18" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>1074</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>1080</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>41</v>
@@ -5114,28 +5126,28 @@
         <v>42</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q1" s="43" t="s">
         <v>913</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>915</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>917</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>918</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>919</v>
-      </c>
       <c r="R1" s="18" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -6459,7 +6471,7 @@
         <v>24</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81:Q112" si="1">SUM(J81,L81,N81,P81)</f>
+        <f t="shared" ref="Q81:Q111" si="1">SUM(J81,L81,N81,P81)</f>
         <v>24</v>
       </c>
       <c r="R81" s="1" t="b">
@@ -7007,11 +7019,11 @@
       </c>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" s="57" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I112" s="57" t="s">
-        <v>1143</v>
+      <c r="A112" s="55" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I112" s="55" t="s">
+        <v>1134</v>
       </c>
       <c r="J112" s="1">
         <v>0.6</v>
@@ -7121,25 +7133,25 @@
         <v>32</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="Z1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="AC1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>34</v>
@@ -7148,7 +7160,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="AH1" s="12" t="s">
         <v>36</v>
@@ -7157,7 +7169,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="AK1" s="12" t="s">
         <v>38</v>
@@ -7166,7 +7178,7 @@
         <v>32</v>
       </c>
       <c r="AM1" s="12" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="AN1" s="12" t="s">
         <v>40</v>
@@ -7175,7 +7187,7 @@
         <v>32</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="AQ1" s="12" t="s">
         <v>113</v>
@@ -7184,37 +7196,37 @@
         <v>32</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AT1" s="12" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="AU1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AV1" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BB1" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>1075</v>
-      </c>
-      <c r="AX1" s="12" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AY1" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>1078</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>1080</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -15418,7 +15430,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -15479,36 +15491,36 @@
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="153">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" ht="289">
+      <c r="A2" s="57" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C2" s="56">
+        <v>5</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>884</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="58" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>886</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>887</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>888</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>890</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>1131</v>
+      <c r="I2" s="56" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -15573,7 +15585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -15591,45 +15603,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>898</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="J2" s="37" t="b">
         <v>1</v>
@@ -15637,7 +15649,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -15646,10 +15658,10 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="I3" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="J3" s="37" t="b">
         <v>0</v>
@@ -15657,7 +15669,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="37" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -15673,7 +15685,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="37" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -15689,7 +15701,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="37" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -15705,7 +15717,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="37" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -15721,7 +15733,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="37" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -15737,7 +15749,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="37" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -15753,7 +15765,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="37" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -15769,7 +15781,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="37" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -15780,12 +15792,12 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="37" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -15801,7 +15813,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="37" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -15839,7 +15851,7 @@
         <v>870</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -15882,10 +15894,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -15898,171 +15910,162 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="38" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="38" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51">
       <c r="A3" s="38" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="38" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="38" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="38" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" s="38" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="38" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="38" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="38" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17">
       <c r="A11" s="38" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="38" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="38" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="38" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="38" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="51">
-      <c r="A16" s="49" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C16" s="51"/>
+        <v>1053</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16088,37 +16091,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>900</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>901</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>902</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>903</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>904</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>906</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>907</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>908</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>909</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -16242,16 +16245,16 @@
         <v>24</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16">
@@ -16259,7 +16262,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>83</v>
@@ -16298,7 +16301,7 @@
         <v>90</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -16313,7 +16316,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>89</v>
@@ -16322,7 +16325,7 @@
         <v>92</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>86</v>
@@ -16361,7 +16364,7 @@
         <v>98</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -16474,22 +16477,22 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="31" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -16501,25 +16504,25 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="31" t="s">
-        <v>925</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>926</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>946</v>
+        <v>919</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>920</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>940</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -16530,28 +16533,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="31" t="s">
+        <v>921</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>928</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>929</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>931</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>932</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>933</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>934</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -16561,19 +16564,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="12" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -16586,10 +16589,10 @@
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" s="31" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>89</v>
@@ -16598,22 +16601,22 @@
         <v>92</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>111</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>98</v>
@@ -16623,7 +16626,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="31" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>26</v>
@@ -16635,13 +16638,13 @@
         <v>90</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>92</v>
@@ -16654,19 +16657,19 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="31" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -16679,19 +16682,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="31" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -16704,22 +16707,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="31" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -16731,107 +16734,107 @@
     </row>
     <row r="19" spans="1:13" ht="32">
       <c r="A19" s="31" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>85</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L19" s="31" t="s">
         <v>86</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="32">
       <c r="A20" s="31" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>85</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="L20" s="31" t="s">
         <v>86</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="31" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -16842,34 +16845,34 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="12" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>111</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -16877,25 +16880,25 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="12" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -16906,19 +16909,19 @@
     </row>
     <row r="24" spans="1:13" ht="17">
       <c r="A24" s="46" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>49</v>
@@ -16933,10 +16936,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="31" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>26</v>
@@ -16945,16 +16948,16 @@
         <v>86</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -16964,40 +16967,40 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G26" s="31" t="s">
         <v>1100</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="H26" s="31" t="s">
         <v>1101</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="I26" s="31" t="s">
         <v>1102</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="J26" s="31" t="s">
         <v>1103</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>1108</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>1109</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>137</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="M26" s="12"/>
     </row>
@@ -17024,32 +17027,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="47" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="47"/>
       <c r="B2" s="47" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136">
       <c r="A3" s="47" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="136">
       <c r="A4" s="47" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -17073,10 +17076,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="48" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -17088,7 +17091,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -17108,13 +17111,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="48" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -17123,7 +17126,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -17148,13 +17151,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="48" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -17254,25 +17257,25 @@
         <v>32</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="Y1" s="20" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="Z1" s="20" t="s">
         <v>32</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="AC1" s="41" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="41" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="AE1" s="41" t="s">
         <v>34</v>
@@ -17281,7 +17284,7 @@
         <v>32</v>
       </c>
       <c r="AG1" s="41" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="AH1" s="41" t="s">
         <v>36</v>
@@ -17290,7 +17293,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" s="20" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="AK1" s="20" t="s">
         <v>38</v>
@@ -17299,7 +17302,7 @@
         <v>32</v>
       </c>
       <c r="AM1" s="20" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="AN1" s="20" t="s">
         <v>40</v>
@@ -17308,7 +17311,7 @@
         <v>32</v>
       </c>
       <c r="AP1" s="20" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="AQ1" s="20" t="s">
         <v>113</v>
@@ -17317,54 +17320,54 @@
         <v>32</v>
       </c>
       <c r="AS1" s="20" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AT1" s="20" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="AU1" s="20" t="s">
         <v>32</v>
       </c>
       <c r="AV1" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BB1" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>1075</v>
       </c>
-      <c r="AX1" s="12" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AY1" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>1078</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>1080</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>1081</v>
-      </c>
     </row>
     <row r="2" spans="1:55" ht="18">
-      <c r="A2" s="55" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>1142</v>
+      <c r="A2" s="53" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>1133</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -17395,7 +17398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A112" sqref="A112:H112"/>
     </sheetView>
   </sheetViews>
@@ -17410,16 +17413,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>43</v>
@@ -17428,10 +17431,10 @@
         <v>44</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -19731,19 +19734,19 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="57" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D112" s="57" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E112" s="57" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F112" s="57" t="s">
+      <c r="A112" s="55" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E112" s="55" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F112" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="G112" s="57" t="s">
+      <c r="G112" s="55" t="s">
         <v>56</v>
       </c>
       <c r="H112" s="18">

--- a/resources/excels/CD.xlsx
+++ b/resources/excels/CD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD484B-1D1E-B84C-B7A6-819EA3103FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02407BA-3DF9-2A4F-8D16-4FD9F84B2D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3942,7 +3942,7 @@
     <t>Last 3 dialed number in Last 24 Hours/Last 1 calendar day</t>
   </si>
   <si>
-    <t>Customer needs to answer at least 5 questions.\\\\nDo not share the answers with the customer.\\\\n In SIM/Handset/Dongle lost scenario - Name &amp;amp;amp;amp;amp;amp;amp;amp;amp;amp;amp;amp;amp; Billing Address / DOB Check is mandatory with 2 other additional check.</t>
+    <t>Customer needs to answer at least 5 questions.\ Do not share the answers with the customer.\ In SIM/Handset/Dongle lost scenario - Name / Billing Address / DOB Check is mandatory with 2 other additional check.</t>
   </si>
 </sst>
 </file>
@@ -3952,13 +3952,6 @@
   <fonts count="22">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4092,6 +4085,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Tondo-regular"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4250,39 +4248,39 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4293,13 +4291,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4311,48 +4309,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15429,7 +15427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -15491,7 +15489,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="289">
+    <row r="2" spans="1:13" ht="252">
       <c r="A2" s="57" t="s">
         <v>1135</v>
       </c>
@@ -15585,7 +15583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
